--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180977.42</v>
+        <v>202447.66</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6702.87</v>
+        <v>6326.49</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12150.24</v>
+        <v>11405.13</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4053.39</v>
+        <v>4060.24</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18516.26</v>
+        <v>14757.87</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8041.17</v>
+        <v>4690.72</v>
       </c>
     </row>
     <row r="8">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60796.81</v>
+        <v>60815.49</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18375.33</v>
+        <v>18385.25</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5406.87</v>
+        <v>5435.25</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1786.2</v>
+        <v>1817.16</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4971.37</v>
+        <v>4623.73</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6034.07</v>
+        <v>5835.18</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3502.36</v>
+        <v>3492.93</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14971.92</v>
+        <v>14982.3</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2595.25</v>
+        <v>2600.1</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>265.16</v>
+        <v>277.17</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3268.45</v>
+        <v>3266.21</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2773.66</v>
+        <v>2794.28</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3418.59</v>
+        <v>3423.36</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1046.26</v>
+        <v>1202.16</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2512.68</v>
+        <v>2518.95</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>523.63</v>
+        <v>516.52</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3142.57</v>
+        <v>4157.75</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1034.11</v>
+        <v>1032.84</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>407.99</v>
+        <v>408.79</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.86</v>
+        <v>53.05</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>255.04</v>
+        <v>254.96</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,57 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1079.18</v>
+        <v>1076.94</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>548.6900000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>838.83</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>26650.48</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>270.37</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>254.96</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,205 +439,268 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202447.66</v>
+        <v>4157.75</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5057.13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6326.49</v>
+        <v>11405.13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11386.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11405.13</v>
+        <v>1032.84</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1036.47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4060.24</v>
+        <v>2518.95</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2685.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14757.87</v>
+        <v>4060.24</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4044.99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4690.72</v>
+        <v>14757.87</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14787.53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>838.83</v>
+      </c>
+      <c r="C8" t="n">
+        <v>839.96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60815.49</v>
+        <v>26650.48</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26833.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18385.25</v>
+        <v>408.79</v>
+      </c>
+      <c r="C10" t="n">
+        <v>409.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5435.25</v>
+        <v>4690.72</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2807.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1817.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4623.73</v>
+        <v>60815.49</v>
+      </c>
+      <c r="C13" t="n">
+        <v>59038.51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5835.18</v>
+        <v>18385.25</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18391.88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3492.93</v>
+        <v>277.17</v>
+      </c>
+      <c r="C15" t="n">
+        <v>272.72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14982.3</v>
+        <v>5435.25</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5405.32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2600.1</v>
+        <v>1817.16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1782.22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>277.17</v>
+        <v>53.05</v>
+      </c>
+      <c r="C18" t="n">
+        <v>49.69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3266.21</v>
+        <v>270.37</v>
+      </c>
+      <c r="C19" t="n">
+        <v>270.38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2794.28</v>
+        <v>4623.73</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4424</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3423.36</v>
+        <v>5835.18</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5595.17</v>
       </c>
     </row>
     <row r="22">
@@ -649,135 +712,177 @@
       <c r="B22" t="n">
         <v>1202.16</v>
       </c>
+      <c r="C22" t="n">
+        <v>1315.87</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2518.95</v>
+        <v>254.96</v>
+      </c>
+      <c r="C23" t="n">
+        <v>374.56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>516.52</v>
+        <v>254.96</v>
+      </c>
+      <c r="C24" t="n">
+        <v>374.56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4157.75</v>
+        <v>548.6900000000001</v>
+      </c>
+      <c r="C25" t="n">
+        <v>545.15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1032.84</v>
+        <v>1076.94</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1078.23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>408.79</v>
+        <v>3266.21</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3267.45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05</v>
+        <v>2794.28</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2770.12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>254.96</v>
+        <v>516.52</v>
+      </c>
+      <c r="C29" t="n">
+        <v>516.4400000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1076.94</v>
+        <v>3492.93</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3492.43</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>548.6900000000001</v>
+        <v>2600.1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2590.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>838.83</v>
+        <v>14982.3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>15003.99</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26650.48</v>
+        <v>3423.36</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3422.86</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>270.37</v>
+        <v>6326.49</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6447.39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>254.96</v>
+        <v>202447.66</v>
+      </c>
+      <c r="C35" t="n">
+        <v>199869.18</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,335 +439,439 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199494.62</v>
+        <v>5057.13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5034.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6435.31</v>
+        <v>11386.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11336.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5057.13</v>
+        <v>1036.47</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1033.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11386.1</v>
+        <v>2685.23</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2672.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1036.47</v>
+        <v>4044.99</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4057.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2685.23</v>
+        <v>14787.53</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14760.18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4044.99</v>
+        <v>839.96</v>
+      </c>
+      <c r="C8" t="n">
+        <v>838.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14787.53</v>
+        <v>26833.05</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26726.53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>839.96</v>
+        <v>409.57</v>
+      </c>
+      <c r="C10" t="n">
+        <v>407.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26833.05</v>
+        <v>2807.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>850.3200000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>409.57</v>
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2807.4</v>
+        <v>59038.51</v>
+      </c>
+      <c r="C13" t="n">
+        <v>58979.07</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>18391.88</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18387.91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59038.51</v>
+        <v>272.72</v>
+      </c>
+      <c r="C15" t="n">
+        <v>297.76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18391.88</v>
+        <v>5405.32</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5384.89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>272.72</v>
+        <v>1782.22</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1797.92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5405.32</v>
+        <v>49.69</v>
+      </c>
+      <c r="C18" t="n">
+        <v>48.64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1782.22</v>
+        <v>270.38</v>
+      </c>
+      <c r="C19" t="n">
+        <v>269.61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>49.69</v>
+        <v>4424</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4422.83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>270.38</v>
+        <v>5595.17</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5597.41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4424</v>
+        <v>1315.87</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1385.43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5595.17</v>
+        <v>374.56</v>
+      </c>
+      <c r="C23" t="n">
+        <v>374.78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1315.87</v>
+        <v>545.15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>544.42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>374.56</v>
+        <v>1078.23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1077.63</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>545.15</v>
+        <v>3267.45</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3265.66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1078.23</v>
+        <v>2770.12</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2765.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3267.45</v>
+        <v>516.4400000000001</v>
+      </c>
+      <c r="C28" t="n">
+        <v>518.48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2770.12</v>
+        <v>3492.43</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3514.85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>516.4400000000001</v>
+        <v>2590.2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2596.22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3492.43</v>
+        <v>15003.99</v>
+      </c>
+      <c r="C31" t="n">
+        <v>15015.07</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2590.2</v>
+        <v>3422.86</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2302.79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>15003.99</v>
+        <v>6435.31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6331.06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3422.86</v>
+        <v>199494.62</v>
+      </c>
+      <c r="C34" t="n">
+        <v>196262.74</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -597,9 +597,7 @@
       <c r="B13" t="n">
         <v>59038.51</v>
       </c>
-      <c r="C13" t="n">
-        <v>58979.07</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -610,9 +608,7 @@
       <c r="B14" t="n">
         <v>18391.88</v>
       </c>
-      <c r="C14" t="n">
-        <v>18387.91</v>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -623,9 +619,7 @@
       <c r="B15" t="n">
         <v>272.72</v>
       </c>
-      <c r="C15" t="n">
-        <v>297.76</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -636,9 +630,7 @@
       <c r="B16" t="n">
         <v>5405.32</v>
       </c>
-      <c r="C16" t="n">
-        <v>5384.89</v>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -766,9 +758,7 @@
       <c r="B26" t="n">
         <v>3267.45</v>
       </c>
-      <c r="C26" t="n">
-        <v>3265.66</v>
-      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -858,7 +848,7 @@
         <v>6435.31</v>
       </c>
       <c r="C33" t="n">
-        <v>6331.06</v>
+        <v>4228.75</v>
       </c>
     </row>
     <row r="34">
@@ -871,7 +861,7 @@
         <v>199494.62</v>
       </c>
       <c r="C34" t="n">
-        <v>196262.74</v>
+        <v>109947.45</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5057.13</v>
+        <v>3075.68</v>
       </c>
       <c r="C2" t="n">
-        <v>5034.36</v>
+        <v>3082.31</v>
       </c>
       <c r="D2" t="n">
-        <v>5058.45</v>
+        <v>3077.98</v>
       </c>
       <c r="E2" t="n">
-        <v>5056.23</v>
+        <v>2946.52</v>
       </c>
       <c r="F2" t="n">
-        <v>5059.6</v>
+        <v>2944.72</v>
       </c>
       <c r="G2" t="n">
-        <v>3545.58</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3556.35</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3550.39</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3534.58</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3104.85</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3088.31</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3075.68</v>
+        <v>2932.33</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11386.1</v>
+        <v>11402.03</v>
       </c>
       <c r="C3" t="n">
-        <v>11336.13</v>
+        <v>11404.69</v>
       </c>
       <c r="D3" t="n">
-        <v>11406.02</v>
+        <v>11349.11</v>
       </c>
       <c r="E3" t="n">
-        <v>11335.34</v>
+        <v>11372.71</v>
       </c>
       <c r="F3" t="n">
-        <v>11412.85</v>
+        <v>11419.76</v>
       </c>
       <c r="G3" t="n">
-        <v>11400.62</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11392.12</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11383.01</v>
-      </c>
-      <c r="J3" t="n">
-        <v>11370.98</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11377.58</v>
-      </c>
-      <c r="L3" t="n">
-        <v>11362.41</v>
-      </c>
-      <c r="M3" t="n">
-        <v>11402.03</v>
+        <v>12673.74</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1036.47</v>
+        <v>1041</v>
       </c>
       <c r="C4" t="n">
-        <v>1033.62</v>
+        <v>1037.22</v>
       </c>
       <c r="D4" t="n">
-        <v>1042.34</v>
+        <v>1038.15</v>
       </c>
       <c r="E4" t="n">
-        <v>1041.22</v>
+        <v>1038.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1039.62</v>
+        <v>1042.51</v>
       </c>
       <c r="G4" t="n">
-        <v>1031.42</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1033.13</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1042.12</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1035.74</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1041.99</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1042.33</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1041</v>
+        <v>1028.6</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2685.23</v>
+        <v>2677.23</v>
       </c>
       <c r="C5" t="n">
-        <v>2672.24</v>
+        <v>2678.58</v>
       </c>
       <c r="D5" t="n">
-        <v>2673.96</v>
+        <v>2671.12</v>
       </c>
       <c r="E5" t="n">
-        <v>2681.86</v>
+        <v>2670.69</v>
       </c>
       <c r="F5" t="n">
-        <v>2680.95</v>
+        <v>2671.04</v>
       </c>
       <c r="G5" t="n">
-        <v>2685.95</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2684.51</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2671.66</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2680.74</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2686.56</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2681.43</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2677.23</v>
+        <v>2682.68</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4044.99</v>
+        <v>4055.6</v>
       </c>
       <c r="C6" t="n">
-        <v>4057.08</v>
+        <v>4071.69</v>
       </c>
       <c r="D6" t="n">
-        <v>4057.09</v>
+        <v>4059.45</v>
       </c>
       <c r="E6" t="n">
-        <v>4075.53</v>
+        <v>4058.36</v>
       </c>
       <c r="F6" t="n">
-        <v>4062.11</v>
+        <v>4065.11</v>
       </c>
       <c r="G6" t="n">
-        <v>4063.33</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4046.98</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4044.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4048.64</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4040.94</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4044.31</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4055.6</v>
+        <v>4055.22</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14787.53</v>
+        <v>14741.17</v>
       </c>
       <c r="C7" t="n">
-        <v>14760.18</v>
+        <v>14738.5</v>
       </c>
       <c r="D7" t="n">
-        <v>14794.89</v>
+        <v>12791.11</v>
       </c>
       <c r="E7" t="n">
-        <v>14727.35</v>
+        <v>6940.17</v>
       </c>
       <c r="F7" t="n">
-        <v>14763.66</v>
+        <v>6935.03</v>
       </c>
       <c r="G7" t="n">
-        <v>14730.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>14747.22</v>
-      </c>
-      <c r="I7" t="n">
-        <v>14720.01</v>
-      </c>
-      <c r="J7" t="n">
-        <v>14792.79</v>
-      </c>
-      <c r="K7" t="n">
-        <v>14766.26</v>
-      </c>
-      <c r="L7" t="n">
-        <v>14793.08</v>
-      </c>
-      <c r="M7" t="n">
-        <v>14741.17</v>
+        <v>6888.02</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>839.96</v>
+        <v>840.74</v>
       </c>
       <c r="C8" t="n">
-        <v>838.42</v>
+        <v>837.58</v>
       </c>
       <c r="D8" t="n">
-        <v>840.22</v>
+        <v>838.9</v>
       </c>
       <c r="E8" t="n">
-        <v>838.03</v>
+        <v>842.22</v>
       </c>
       <c r="F8" t="n">
-        <v>838.36</v>
+        <v>842.5</v>
       </c>
       <c r="G8" t="n">
-        <v>842.22</v>
-      </c>
-      <c r="H8" t="n">
-        <v>841.97</v>
-      </c>
-      <c r="I8" t="n">
-        <v>841.78</v>
-      </c>
-      <c r="J8" t="n">
-        <v>838.96</v>
-      </c>
-      <c r="K8" t="n">
-        <v>838.53</v>
-      </c>
-      <c r="L8" t="n">
-        <v>839</v>
-      </c>
-      <c r="M8" t="n">
-        <v>840.74</v>
+        <v>842.35</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26833.05</v>
+        <v>26676.55</v>
       </c>
       <c r="C9" t="n">
-        <v>26726.53</v>
+        <v>26811.41</v>
       </c>
       <c r="D9" t="n">
-        <v>26761.37</v>
+        <v>26596.79</v>
       </c>
       <c r="E9" t="n">
-        <v>26703.49</v>
+        <v>26655.76</v>
       </c>
       <c r="F9" t="n">
-        <v>26666.45</v>
+        <v>26713.62</v>
       </c>
       <c r="G9" t="n">
-        <v>26838.01</v>
-      </c>
-      <c r="H9" t="n">
-        <v>26626.1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>26785.97</v>
-      </c>
-      <c r="J9" t="n">
-        <v>26615.63</v>
-      </c>
-      <c r="K9" t="n">
-        <v>26709.59</v>
-      </c>
-      <c r="L9" t="n">
-        <v>26741.92</v>
-      </c>
-      <c r="M9" t="n">
-        <v>26676.55</v>
+        <v>26756.08</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.57</v>
+        <v>48.48</v>
       </c>
       <c r="C10" t="n">
-        <v>407.39</v>
+        <v>48.63</v>
       </c>
       <c r="D10" t="n">
-        <v>407.12</v>
+        <v>48.31</v>
       </c>
       <c r="E10" t="n">
-        <v>406.78</v>
+        <v>48.72</v>
       </c>
       <c r="F10" t="n">
-        <v>406.58</v>
+        <v>48.59</v>
       </c>
       <c r="G10" t="n">
-        <v>406.16</v>
-      </c>
-      <c r="H10" t="n">
-        <v>408.05</v>
-      </c>
-      <c r="I10" t="n">
-        <v>406.54</v>
-      </c>
-      <c r="J10" t="n">
-        <v>406.58</v>
-      </c>
-      <c r="K10" t="n">
-        <v>48.58</v>
-      </c>
-      <c r="L10" t="n">
-        <v>48.45</v>
-      </c>
-      <c r="M10" t="n">
-        <v>48.48</v>
+        <v>48.57</v>
       </c>
     </row>
     <row r="11">
@@ -889,41 +697,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2807.4</v>
+        <v>860.26</v>
       </c>
       <c r="C11" t="n">
-        <v>850.3200000000001</v>
-      </c>
-      <c r="D11" t="n">
-        <v>898.6900000000001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>878.77</v>
-      </c>
-      <c r="F11" t="n">
-        <v>852.38</v>
-      </c>
-      <c r="G11" t="n">
-        <v>857.4400000000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>901.66</v>
-      </c>
-      <c r="I11" t="n">
-        <v>843.25</v>
-      </c>
-      <c r="J11" t="n">
-        <v>899.6900000000001</v>
-      </c>
-      <c r="K11" t="n">
-        <v>846.75</v>
-      </c>
-      <c r="L11" t="n">
-        <v>851.66</v>
-      </c>
-      <c r="M11" t="n">
-        <v>860.26</v>
-      </c>
+        <v>902.5700000000001</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -949,24 +731,6 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -975,38 +739,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59038.51</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>29685.82</v>
+      </c>
+      <c r="C13" t="n">
+        <v>29641.25</v>
+      </c>
       <c r="D13" t="n">
-        <v>47512.15</v>
+        <v>29616.99</v>
       </c>
       <c r="E13" t="n">
-        <v>45804.27</v>
+        <v>29678.44</v>
       </c>
       <c r="F13" t="n">
-        <v>45808.53</v>
+        <v>29614.03</v>
       </c>
       <c r="G13" t="n">
-        <v>41685.14</v>
-      </c>
-      <c r="H13" t="n">
-        <v>39913.41</v>
-      </c>
-      <c r="I13" t="n">
-        <v>39842.31</v>
-      </c>
-      <c r="J13" t="n">
-        <v>38049.05</v>
-      </c>
-      <c r="K13" t="n">
-        <v>37725.22</v>
-      </c>
-      <c r="L13" t="n">
-        <v>31670.82</v>
-      </c>
-      <c r="M13" t="n">
-        <v>29685.82</v>
+        <v>29627.4</v>
       </c>
     </row>
     <row r="14">
@@ -1016,38 +764,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18391.88</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>16371.27</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16372.8</v>
+      </c>
       <c r="D14" t="n">
-        <v>18367.48</v>
+        <v>16332.57</v>
       </c>
       <c r="E14" t="n">
-        <v>18359.76</v>
+        <v>16389.77</v>
       </c>
       <c r="F14" t="n">
-        <v>18361.31</v>
+        <v>16343.44</v>
       </c>
       <c r="G14" t="n">
-        <v>18355.98</v>
-      </c>
-      <c r="H14" t="n">
-        <v>18386.46</v>
-      </c>
-      <c r="I14" t="n">
-        <v>18374.11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>18373.78</v>
-      </c>
-      <c r="K14" t="n">
-        <v>16815.8</v>
-      </c>
-      <c r="L14" t="n">
-        <v>16349.29</v>
-      </c>
-      <c r="M14" t="n">
-        <v>16371.27</v>
+        <v>16390.65</v>
       </c>
     </row>
     <row r="15">
@@ -1057,38 +789,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>272.72</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>303.55</v>
+      </c>
+      <c r="C15" t="n">
+        <v>279.22</v>
+      </c>
       <c r="D15" t="n">
-        <v>287.23</v>
+        <v>293.49</v>
       </c>
       <c r="E15" t="n">
-        <v>303.99</v>
+        <v>252.05</v>
       </c>
       <c r="F15" t="n">
-        <v>292.34</v>
+        <v>263.92</v>
       </c>
       <c r="G15" t="n">
-        <v>288.29</v>
-      </c>
-      <c r="H15" t="n">
-        <v>278.24</v>
-      </c>
-      <c r="I15" t="n">
-        <v>280.96</v>
-      </c>
-      <c r="J15" t="n">
-        <v>279.81</v>
-      </c>
-      <c r="K15" t="n">
-        <v>279.24</v>
-      </c>
-      <c r="L15" t="n">
-        <v>266.85</v>
-      </c>
-      <c r="M15" t="n">
-        <v>303.55</v>
+        <v>271.39</v>
       </c>
     </row>
     <row r="16">
@@ -1098,38 +814,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5405.32</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>5740</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5705.79</v>
+      </c>
       <c r="D16" t="n">
-        <v>5568.52</v>
+        <v>5685.84</v>
       </c>
       <c r="E16" t="n">
-        <v>6037.37</v>
+        <v>5752.95</v>
       </c>
       <c r="F16" t="n">
-        <v>6044.91</v>
+        <v>5858.36</v>
       </c>
       <c r="G16" t="n">
-        <v>6006.43</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6045.84</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5971.76</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5963.19</v>
-      </c>
-      <c r="K16" t="n">
-        <v>6008.56</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6011.87</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5740</v>
+        <v>7389.22</v>
       </c>
     </row>
     <row r="17">
@@ -1139,40 +839,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1782.22</v>
+        <v>1820.08</v>
       </c>
       <c r="C17" t="n">
-        <v>1797.92</v>
+        <v>1814.43</v>
       </c>
       <c r="D17" t="n">
-        <v>1805.75</v>
+        <v>1829.57</v>
       </c>
       <c r="E17" t="n">
-        <v>1773.27</v>
+        <v>1798.3</v>
       </c>
       <c r="F17" t="n">
-        <v>1790.54</v>
+        <v>1821.88</v>
       </c>
       <c r="G17" t="n">
-        <v>1813.21</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1802.75</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1785.31</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1807.87</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1814.81</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1785.91</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1820.08</v>
+        <v>1135.15</v>
       </c>
     </row>
     <row r="18">
@@ -1182,40 +864,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>49.69</v>
+        <v>50.14</v>
       </c>
       <c r="C18" t="n">
-        <v>48.64</v>
+        <v>46.7</v>
       </c>
       <c r="D18" t="n">
-        <v>53.96</v>
+        <v>49.02</v>
       </c>
       <c r="E18" t="n">
-        <v>47.94</v>
+        <v>52.79</v>
       </c>
       <c r="F18" t="n">
-        <v>45.91</v>
+        <v>54.06</v>
       </c>
       <c r="G18" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>46.48</v>
-      </c>
-      <c r="I18" t="n">
-        <v>47.78</v>
-      </c>
-      <c r="J18" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>47.08</v>
-      </c>
-      <c r="L18" t="n">
-        <v>53.41</v>
-      </c>
-      <c r="M18" t="n">
-        <v>50.14</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="19">
@@ -1225,40 +889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>270.38</v>
+        <v>270.62</v>
       </c>
       <c r="C19" t="n">
-        <v>269.61</v>
+        <v>269.44</v>
       </c>
       <c r="D19" t="n">
-        <v>270.21</v>
+        <v>268.8</v>
       </c>
       <c r="E19" t="n">
-        <v>269.97</v>
+        <v>270.44</v>
       </c>
       <c r="F19" t="n">
-        <v>268.84</v>
+        <v>269.65</v>
       </c>
       <c r="G19" t="n">
-        <v>270.55</v>
-      </c>
-      <c r="H19" t="n">
-        <v>268.8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>271.22</v>
-      </c>
-      <c r="J19" t="n">
-        <v>269.1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>270.5</v>
-      </c>
-      <c r="L19" t="n">
-        <v>269.64</v>
-      </c>
-      <c r="M19" t="n">
-        <v>270.62</v>
+        <v>269.67</v>
       </c>
     </row>
     <row r="20">
@@ -1268,40 +914,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4424</v>
+        <v>2840.67</v>
       </c>
       <c r="C20" t="n">
-        <v>4422.83</v>
+        <v>2832.9</v>
       </c>
       <c r="D20" t="n">
-        <v>4247.14</v>
+        <v>2837.39</v>
       </c>
       <c r="E20" t="n">
-        <v>4242.11</v>
+        <v>2826.87</v>
       </c>
       <c r="F20" t="n">
-        <v>4041.3</v>
+        <v>2824.21</v>
       </c>
       <c r="G20" t="n">
-        <v>3845.83</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3647.35</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3525.21</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3429.22</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3223.49</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2828.6</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2840.67</v>
+        <v>2826.93</v>
       </c>
     </row>
     <row r="21">
@@ -1311,40 +939,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5595.17</v>
+        <v>3602.48</v>
       </c>
       <c r="C21" t="n">
-        <v>5597.41</v>
+        <v>3599.19</v>
       </c>
       <c r="D21" t="n">
-        <v>4138</v>
+        <v>3585.11</v>
       </c>
       <c r="E21" t="n">
-        <v>4120.63</v>
+        <v>3600.09</v>
       </c>
       <c r="F21" t="n">
-        <v>4122.99</v>
+        <v>3609.33</v>
       </c>
       <c r="G21" t="n">
-        <v>4138.67</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4139.09</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4114.37</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4103.41</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3836.27</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3605.38</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3602.48</v>
+        <v>3587.94</v>
       </c>
     </row>
     <row r="22">
@@ -1354,40 +964,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1315.87</v>
+        <v>1906.45</v>
       </c>
       <c r="C22" t="n">
-        <v>1385.43</v>
+        <v>1918.86</v>
       </c>
       <c r="D22" t="n">
-        <v>1772.6</v>
+        <v>1855.95</v>
       </c>
       <c r="E22" t="n">
-        <v>1863.37</v>
+        <v>1847.32</v>
       </c>
       <c r="F22" t="n">
-        <v>1836.98</v>
+        <v>1877.42</v>
       </c>
       <c r="G22" t="n">
-        <v>1833.68</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2193.13</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2182.67</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2176.2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2183.08</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2165.1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1906.45</v>
+        <v>1985.76</v>
       </c>
     </row>
     <row r="23">
@@ -1397,40 +989,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.56</v>
+        <v>437.4</v>
       </c>
       <c r="C23" t="n">
-        <v>374.78</v>
+        <v>172.96</v>
       </c>
       <c r="D23" t="n">
-        <v>437.76</v>
+        <v>173.24</v>
       </c>
       <c r="E23" t="n">
-        <v>438.77</v>
+        <v>172.41</v>
       </c>
       <c r="F23" t="n">
-        <v>437.86</v>
+        <v>172.27</v>
       </c>
       <c r="G23" t="n">
-        <v>438.43</v>
-      </c>
-      <c r="H23" t="n">
-        <v>438.54</v>
-      </c>
-      <c r="I23" t="n">
-        <v>438.53</v>
-      </c>
-      <c r="J23" t="n">
-        <v>437.94</v>
-      </c>
-      <c r="K23" t="n">
-        <v>437.36</v>
-      </c>
-      <c r="L23" t="n">
-        <v>437.32</v>
-      </c>
-      <c r="M23" t="n">
-        <v>437.4</v>
+        <v>172.16</v>
       </c>
     </row>
     <row r="24">
@@ -1440,40 +1014,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>545.15</v>
+        <v>555.28</v>
       </c>
       <c r="C24" t="n">
-        <v>544.42</v>
+        <v>556.14</v>
       </c>
       <c r="D24" t="n">
-        <v>547.5</v>
+        <v>547.47</v>
       </c>
       <c r="E24" t="n">
-        <v>542.5</v>
+        <v>554.09</v>
       </c>
       <c r="F24" t="n">
-        <v>552.77</v>
+        <v>544.99</v>
       </c>
       <c r="G24" t="n">
-        <v>543.98</v>
-      </c>
-      <c r="H24" t="n">
-        <v>556.91</v>
-      </c>
-      <c r="I24" t="n">
-        <v>546.01</v>
-      </c>
-      <c r="J24" t="n">
-        <v>557.08</v>
-      </c>
-      <c r="K24" t="n">
-        <v>549.91</v>
-      </c>
-      <c r="L24" t="n">
-        <v>546.35</v>
-      </c>
-      <c r="M24" t="n">
-        <v>555.28</v>
+        <v>553.88</v>
       </c>
     </row>
     <row r="25">
@@ -1483,40 +1039,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1078.23</v>
+        <v>788.34</v>
       </c>
       <c r="C25" t="n">
-        <v>1077.63</v>
+        <v>790.16</v>
       </c>
       <c r="D25" t="n">
-        <v>793.96</v>
+        <v>787.9400000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>794.75</v>
+        <v>795.29</v>
       </c>
       <c r="F25" t="n">
-        <v>794.0700000000001</v>
+        <v>795.17</v>
       </c>
       <c r="G25" t="n">
-        <v>792.98</v>
-      </c>
-      <c r="H25" t="n">
-        <v>796.26</v>
-      </c>
-      <c r="I25" t="n">
-        <v>795.5700000000001</v>
-      </c>
-      <c r="J25" t="n">
-        <v>788.8</v>
-      </c>
-      <c r="K25" t="n">
-        <v>794.16</v>
-      </c>
-      <c r="L25" t="n">
-        <v>794.0700000000001</v>
-      </c>
-      <c r="M25" t="n">
-        <v>788.34</v>
+        <v>792.76</v>
       </c>
     </row>
     <row r="26">
@@ -1526,38 +1064,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3267.45</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>3276.4</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3282.45</v>
+      </c>
       <c r="D26" t="n">
-        <v>3285.8</v>
+        <v>3286.44</v>
       </c>
       <c r="E26" t="n">
-        <v>3262.04</v>
+        <v>3286.32</v>
       </c>
       <c r="F26" t="n">
-        <v>3286.89</v>
+        <v>3287.63</v>
       </c>
       <c r="G26" t="n">
-        <v>3276.38</v>
-      </c>
-      <c r="H26" t="n">
-        <v>3278.11</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3289.5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3268.11</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3260.77</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3279.03</v>
-      </c>
-      <c r="M26" t="n">
-        <v>3276.4</v>
+        <v>3284.61</v>
       </c>
     </row>
     <row r="27">
@@ -1567,40 +1089,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2770.12</v>
+        <v>2766.32</v>
       </c>
       <c r="C27" t="n">
-        <v>2765.1</v>
+        <v>2796.19</v>
       </c>
       <c r="D27" t="n">
-        <v>2788.78</v>
+        <v>2786.33</v>
       </c>
       <c r="E27" t="n">
-        <v>2763.29</v>
+        <v>2787.83</v>
       </c>
       <c r="F27" t="n">
-        <v>2806.09</v>
+        <v>2766.74</v>
       </c>
       <c r="G27" t="n">
-        <v>2770.27</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2774.69</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2802.06</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2769.66</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2784.74</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2778.9</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2766.32</v>
+        <v>2778.91</v>
       </c>
     </row>
     <row r="28">
@@ -1610,40 +1114,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>516.4400000000001</v>
+        <v>523.29</v>
       </c>
       <c r="C28" t="n">
-        <v>518.48</v>
+        <v>527.78</v>
       </c>
       <c r="D28" t="n">
-        <v>522.2</v>
+        <v>515.65</v>
       </c>
       <c r="E28" t="n">
-        <v>521.95</v>
+        <v>517.63</v>
       </c>
       <c r="F28" t="n">
-        <v>523.1900000000001</v>
+        <v>520.46</v>
       </c>
       <c r="G28" t="n">
-        <v>521.14</v>
-      </c>
-      <c r="H28" t="n">
-        <v>516.28</v>
-      </c>
-      <c r="I28" t="n">
-        <v>521.2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>516.02</v>
-      </c>
-      <c r="K28" t="n">
-        <v>518.13</v>
-      </c>
-      <c r="L28" t="n">
-        <v>521.22</v>
-      </c>
-      <c r="M28" t="n">
-        <v>523.29</v>
+        <v>513.14</v>
       </c>
     </row>
     <row r="29">
@@ -1653,40 +1139,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3492.43</v>
+        <v>3509.42</v>
       </c>
       <c r="C29" t="n">
-        <v>3514.85</v>
+        <v>3498.16</v>
       </c>
       <c r="D29" t="n">
-        <v>3502.69</v>
+        <v>3488.45</v>
       </c>
       <c r="E29" t="n">
-        <v>3515.49</v>
+        <v>3499.86</v>
       </c>
       <c r="F29" t="n">
-        <v>3518.34</v>
+        <v>3492.97</v>
       </c>
       <c r="G29" t="n">
-        <v>3504.58</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3499.31</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3499.22</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3491.79</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3504.51</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3509.3</v>
-      </c>
-      <c r="M29" t="n">
-        <v>3509.42</v>
+        <v>3522.98</v>
       </c>
     </row>
     <row r="30">
@@ -1696,40 +1164,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2590.2</v>
+        <v>2553.75</v>
       </c>
       <c r="C30" t="n">
-        <v>2596.22</v>
+        <v>2401.32</v>
       </c>
       <c r="D30" t="n">
-        <v>2445.25</v>
+        <v>2401.19</v>
       </c>
       <c r="E30" t="n">
-        <v>2396.61</v>
+        <v>2439.96</v>
       </c>
       <c r="F30" t="n">
-        <v>2580.7</v>
+        <v>2406.32</v>
       </c>
       <c r="G30" t="n">
-        <v>2608.8</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2630.9</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2619.22</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2622.63</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2628.43</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2624</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2553.75</v>
+        <v>2627.27</v>
       </c>
     </row>
     <row r="31">
@@ -1739,41 +1189,17 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15003.99</v>
+        <v>14990.83</v>
       </c>
       <c r="C31" t="n">
-        <v>15015.07</v>
+        <v>14989.8</v>
       </c>
       <c r="D31" t="n">
-        <v>14987.47</v>
-      </c>
-      <c r="E31" t="n">
-        <v>14967.4</v>
-      </c>
-      <c r="F31" t="n">
-        <v>14964.31</v>
-      </c>
-      <c r="G31" t="n">
-        <v>14995.42</v>
-      </c>
-      <c r="H31" t="n">
-        <v>15019.44</v>
-      </c>
-      <c r="I31" t="n">
-        <v>15021.19</v>
-      </c>
-      <c r="J31" t="n">
-        <v>15012.35</v>
-      </c>
-      <c r="K31" t="n">
-        <v>15009.82</v>
-      </c>
-      <c r="L31" t="n">
-        <v>15022.93</v>
-      </c>
-      <c r="M31" t="n">
-        <v>14990.83</v>
-      </c>
+        <v>9762.4</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1782,40 +1208,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3422.86</v>
+        <v>2306.17</v>
       </c>
       <c r="C32" t="n">
-        <v>2302.79</v>
+        <v>2303.31</v>
       </c>
       <c r="D32" t="n">
-        <v>2302.96</v>
+        <v>2299.25</v>
       </c>
       <c r="E32" t="n">
-        <v>2307.89</v>
+        <v>2304.39</v>
       </c>
       <c r="F32" t="n">
-        <v>2306.37</v>
+        <v>2307.38</v>
       </c>
       <c r="G32" t="n">
-        <v>2303.38</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2300.74</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2304.86</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2302.41</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2307.92</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2300.31</v>
-      </c>
-      <c r="M32" t="n">
-        <v>2306.17</v>
+        <v>2299.71</v>
       </c>
     </row>
     <row r="33">
@@ -1825,40 +1233,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6435.31</v>
+        <v>5152.16</v>
       </c>
       <c r="C33" t="n">
-        <v>4228.75</v>
+        <v>5142.32</v>
       </c>
       <c r="D33" t="n">
-        <v>5921.86</v>
+        <v>5029.13</v>
       </c>
       <c r="E33" t="n">
-        <v>5873.48</v>
+        <v>4668.97</v>
       </c>
       <c r="F33" t="n">
-        <v>5876.35</v>
+        <v>4672.87</v>
       </c>
       <c r="G33" t="n">
-        <v>5691.69</v>
-      </c>
-      <c r="H33" t="n">
-        <v>5637.77</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5629.76</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5564.2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>5466.5</v>
-      </c>
-      <c r="L33" t="n">
-        <v>5235.91</v>
-      </c>
-      <c r="M33" t="n">
-        <v>5152.16</v>
+        <v>4757.99</v>
       </c>
     </row>
     <row r="34">
@@ -1868,40 +1258,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>199494.62</v>
+        <v>159717.02</v>
       </c>
       <c r="C34" t="n">
-        <v>109947.45</v>
+        <v>159412.03</v>
       </c>
       <c r="D34" t="n">
-        <v>183577.56</v>
+        <v>150874.01</v>
       </c>
       <c r="E34" t="n">
-        <v>182077.97</v>
+        <v>135400.25</v>
       </c>
       <c r="F34" t="n">
-        <v>182166.8</v>
+        <v>135513.11</v>
       </c>
       <c r="G34" t="n">
-        <v>176442.47</v>
-      </c>
-      <c r="H34" t="n">
-        <v>174770.82</v>
-      </c>
-      <c r="I34" t="n">
-        <v>174522.59</v>
-      </c>
-      <c r="J34" t="n">
-        <v>172490.15</v>
-      </c>
-      <c r="K34" t="n">
-        <v>169461.43</v>
-      </c>
-      <c r="L34" t="n">
-        <v>162313.2</v>
-      </c>
-      <c r="M34" t="n">
-        <v>159717.02</v>
+        <v>137981.62</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>5057.13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5034.36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5058.45</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5056.23</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5059.6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3545.58</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3556.35</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3550.39</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3534.58</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3104.85</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3088.31</v>
+      </c>
+      <c r="M2" t="n">
         <v>3075.68</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3082.31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3077.98</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2946.52</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2944.72</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2932.33</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>11386.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11336.13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11406.02</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11335.34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11412.85</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11400.62</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11392.12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11383.01</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11370.98</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11377.58</v>
+      </c>
+      <c r="L3" t="n">
+        <v>11362.41</v>
+      </c>
+      <c r="M3" t="n">
         <v>11402.03</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11404.69</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11349.11</v>
-      </c>
-      <c r="E3" t="n">
-        <v>11372.71</v>
-      </c>
-      <c r="F3" t="n">
-        <v>11419.76</v>
-      </c>
-      <c r="G3" t="n">
-        <v>12673.74</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>1036.47</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1033.62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1042.34</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1041.22</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1039.62</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1031.42</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1033.13</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1042.12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1035.74</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1041.99</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1042.33</v>
+      </c>
+      <c r="M4" t="n">
         <v>1041</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1037.22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1038.15</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1038.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1042.51</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1028.6</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>2685.23</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2672.24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2673.96</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2681.86</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2680.95</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2685.95</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2684.51</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2671.66</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2680.74</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2686.56</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2681.43</v>
+      </c>
+      <c r="M5" t="n">
         <v>2677.23</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2678.58</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2671.12</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2670.69</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2671.04</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2682.68</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>4044.99</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4057.08</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4057.09</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4075.53</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4062.11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4063.33</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4046.98</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4044.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4048.64</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4040.94</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4044.31</v>
+      </c>
+      <c r="M6" t="n">
         <v>4055.6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4071.69</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4059.45</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4058.36</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4065.11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4055.22</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>14787.53</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14760.18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14794.89</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14727.35</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14763.66</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14730.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>14747.22</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14720.01</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14792.79</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14766.26</v>
+      </c>
+      <c r="L7" t="n">
+        <v>14793.08</v>
+      </c>
+      <c r="M7" t="n">
         <v>14741.17</v>
-      </c>
-      <c r="C7" t="n">
-        <v>14738.5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>12791.11</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6940.17</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6935.03</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6888.02</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +760,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>839.96</v>
+      </c>
+      <c r="C8" t="n">
+        <v>838.42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>840.22</v>
+      </c>
+      <c r="E8" t="n">
+        <v>838.03</v>
+      </c>
+      <c r="F8" t="n">
+        <v>838.36</v>
+      </c>
+      <c r="G8" t="n">
+        <v>842.22</v>
+      </c>
+      <c r="H8" t="n">
+        <v>841.97</v>
+      </c>
+      <c r="I8" t="n">
+        <v>841.78</v>
+      </c>
+      <c r="J8" t="n">
+        <v>838.96</v>
+      </c>
+      <c r="K8" t="n">
+        <v>838.53</v>
+      </c>
+      <c r="L8" t="n">
+        <v>839</v>
+      </c>
+      <c r="M8" t="n">
         <v>840.74</v>
-      </c>
-      <c r="C8" t="n">
-        <v>837.58</v>
-      </c>
-      <c r="D8" t="n">
-        <v>838.9</v>
-      </c>
-      <c r="E8" t="n">
-        <v>842.22</v>
-      </c>
-      <c r="F8" t="n">
-        <v>842.5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>842.35</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +803,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>26833.05</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26726.53</v>
+      </c>
+      <c r="D9" t="n">
+        <v>26761.37</v>
+      </c>
+      <c r="E9" t="n">
+        <v>26703.49</v>
+      </c>
+      <c r="F9" t="n">
+        <v>26666.45</v>
+      </c>
+      <c r="G9" t="n">
+        <v>26838.01</v>
+      </c>
+      <c r="H9" t="n">
+        <v>26626.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>26785.97</v>
+      </c>
+      <c r="J9" t="n">
+        <v>26615.63</v>
+      </c>
+      <c r="K9" t="n">
+        <v>26709.59</v>
+      </c>
+      <c r="L9" t="n">
+        <v>26741.92</v>
+      </c>
+      <c r="M9" t="n">
         <v>26676.55</v>
-      </c>
-      <c r="C9" t="n">
-        <v>26811.41</v>
-      </c>
-      <c r="D9" t="n">
-        <v>26596.79</v>
-      </c>
-      <c r="E9" t="n">
-        <v>26655.76</v>
-      </c>
-      <c r="F9" t="n">
-        <v>26713.62</v>
-      </c>
-      <c r="G9" t="n">
-        <v>26756.08</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +846,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>409.57</v>
+      </c>
+      <c r="C10" t="n">
+        <v>407.39</v>
+      </c>
+      <c r="D10" t="n">
+        <v>407.12</v>
+      </c>
+      <c r="E10" t="n">
+        <v>406.78</v>
+      </c>
+      <c r="F10" t="n">
+        <v>406.58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>406.16</v>
+      </c>
+      <c r="H10" t="n">
+        <v>408.05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>406.54</v>
+      </c>
+      <c r="J10" t="n">
+        <v>406.58</v>
+      </c>
+      <c r="K10" t="n">
+        <v>48.58</v>
+      </c>
+      <c r="L10" t="n">
+        <v>48.45</v>
+      </c>
+      <c r="M10" t="n">
         <v>48.48</v>
-      </c>
-      <c r="C10" t="n">
-        <v>48.63</v>
-      </c>
-      <c r="D10" t="n">
-        <v>48.31</v>
-      </c>
-      <c r="E10" t="n">
-        <v>48.72</v>
-      </c>
-      <c r="F10" t="n">
-        <v>48.59</v>
-      </c>
-      <c r="G10" t="n">
-        <v>48.57</v>
       </c>
     </row>
     <row r="11">
@@ -697,15 +889,41 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>2807.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>850.3200000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>898.6900000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>878.77</v>
+      </c>
+      <c r="F11" t="n">
+        <v>852.38</v>
+      </c>
+      <c r="G11" t="n">
+        <v>857.4400000000001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>901.66</v>
+      </c>
+      <c r="I11" t="n">
+        <v>843.25</v>
+      </c>
+      <c r="J11" t="n">
+        <v>899.6900000000001</v>
+      </c>
+      <c r="K11" t="n">
+        <v>846.75</v>
+      </c>
+      <c r="L11" t="n">
+        <v>851.66</v>
+      </c>
+      <c r="M11" t="n">
         <v>860.26</v>
       </c>
-      <c r="C11" t="n">
-        <v>902.5700000000001</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -731,6 +949,24 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -739,22 +975,38 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>59038.51</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>47512.15</v>
+      </c>
+      <c r="E13" t="n">
+        <v>45804.27</v>
+      </c>
+      <c r="F13" t="n">
+        <v>45808.53</v>
+      </c>
+      <c r="G13" t="n">
+        <v>41685.14</v>
+      </c>
+      <c r="H13" t="n">
+        <v>39913.41</v>
+      </c>
+      <c r="I13" t="n">
+        <v>39842.31</v>
+      </c>
+      <c r="J13" t="n">
+        <v>38049.05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>37725.22</v>
+      </c>
+      <c r="L13" t="n">
+        <v>31670.82</v>
+      </c>
+      <c r="M13" t="n">
         <v>29685.82</v>
-      </c>
-      <c r="C13" t="n">
-        <v>29641.25</v>
-      </c>
-      <c r="D13" t="n">
-        <v>29616.99</v>
-      </c>
-      <c r="E13" t="n">
-        <v>29678.44</v>
-      </c>
-      <c r="F13" t="n">
-        <v>29614.03</v>
-      </c>
-      <c r="G13" t="n">
-        <v>29627.4</v>
       </c>
     </row>
     <row r="14">
@@ -764,22 +1016,38 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>18391.88</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>18367.48</v>
+      </c>
+      <c r="E14" t="n">
+        <v>18359.76</v>
+      </c>
+      <c r="F14" t="n">
+        <v>18361.31</v>
+      </c>
+      <c r="G14" t="n">
+        <v>18355.98</v>
+      </c>
+      <c r="H14" t="n">
+        <v>18386.46</v>
+      </c>
+      <c r="I14" t="n">
+        <v>18374.11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>18373.78</v>
+      </c>
+      <c r="K14" t="n">
+        <v>16815.8</v>
+      </c>
+      <c r="L14" t="n">
+        <v>16349.29</v>
+      </c>
+      <c r="M14" t="n">
         <v>16371.27</v>
-      </c>
-      <c r="C14" t="n">
-        <v>16372.8</v>
-      </c>
-      <c r="D14" t="n">
-        <v>16332.57</v>
-      </c>
-      <c r="E14" t="n">
-        <v>16389.77</v>
-      </c>
-      <c r="F14" t="n">
-        <v>16343.44</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16390.65</v>
       </c>
     </row>
     <row r="15">
@@ -789,22 +1057,38 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>272.72</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>287.23</v>
+      </c>
+      <c r="E15" t="n">
+        <v>303.99</v>
+      </c>
+      <c r="F15" t="n">
+        <v>292.34</v>
+      </c>
+      <c r="G15" t="n">
+        <v>288.29</v>
+      </c>
+      <c r="H15" t="n">
+        <v>278.24</v>
+      </c>
+      <c r="I15" t="n">
+        <v>280.96</v>
+      </c>
+      <c r="J15" t="n">
+        <v>279.81</v>
+      </c>
+      <c r="K15" t="n">
+        <v>279.24</v>
+      </c>
+      <c r="L15" t="n">
+        <v>266.85</v>
+      </c>
+      <c r="M15" t="n">
         <v>303.55</v>
-      </c>
-      <c r="C15" t="n">
-        <v>279.22</v>
-      </c>
-      <c r="D15" t="n">
-        <v>293.49</v>
-      </c>
-      <c r="E15" t="n">
-        <v>252.05</v>
-      </c>
-      <c r="F15" t="n">
-        <v>263.92</v>
-      </c>
-      <c r="G15" t="n">
-        <v>271.39</v>
       </c>
     </row>
     <row r="16">
@@ -814,22 +1098,38 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>5405.32</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>5568.52</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6037.37</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6044.91</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6006.43</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6045.84</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5971.76</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5963.19</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6008.56</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6011.87</v>
+      </c>
+      <c r="M16" t="n">
         <v>5740</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5705.79</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5685.84</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5752.95</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5858.36</v>
-      </c>
-      <c r="G16" t="n">
-        <v>7389.22</v>
       </c>
     </row>
     <row r="17">
@@ -839,22 +1139,40 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>1782.22</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1797.92</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1805.75</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1773.27</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1790.54</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1813.21</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1802.75</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1785.31</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1807.87</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1814.81</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1785.91</v>
+      </c>
+      <c r="M17" t="n">
         <v>1820.08</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1814.43</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1829.57</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1798.3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1821.88</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1135.15</v>
       </c>
     </row>
     <row r="18">
@@ -864,22 +1182,40 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>49.69</v>
+      </c>
+      <c r="C18" t="n">
+        <v>48.64</v>
+      </c>
+      <c r="D18" t="n">
+        <v>53.96</v>
+      </c>
+      <c r="E18" t="n">
+        <v>47.94</v>
+      </c>
+      <c r="F18" t="n">
+        <v>45.91</v>
+      </c>
+      <c r="G18" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>46.48</v>
+      </c>
+      <c r="I18" t="n">
+        <v>47.78</v>
+      </c>
+      <c r="J18" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>47.08</v>
+      </c>
+      <c r="L18" t="n">
+        <v>53.41</v>
+      </c>
+      <c r="M18" t="n">
         <v>50.14</v>
-      </c>
-      <c r="C18" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="D18" t="n">
-        <v>49.02</v>
-      </c>
-      <c r="E18" t="n">
-        <v>52.79</v>
-      </c>
-      <c r="F18" t="n">
-        <v>54.06</v>
-      </c>
-      <c r="G18" t="n">
-        <v>44.5</v>
       </c>
     </row>
     <row r="19">
@@ -889,22 +1225,40 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>270.38</v>
+      </c>
+      <c r="C19" t="n">
+        <v>269.61</v>
+      </c>
+      <c r="D19" t="n">
+        <v>270.21</v>
+      </c>
+      <c r="E19" t="n">
+        <v>269.97</v>
+      </c>
+      <c r="F19" t="n">
+        <v>268.84</v>
+      </c>
+      <c r="G19" t="n">
+        <v>270.55</v>
+      </c>
+      <c r="H19" t="n">
+        <v>268.8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>271.22</v>
+      </c>
+      <c r="J19" t="n">
+        <v>269.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>270.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>269.64</v>
+      </c>
+      <c r="M19" t="n">
         <v>270.62</v>
-      </c>
-      <c r="C19" t="n">
-        <v>269.44</v>
-      </c>
-      <c r="D19" t="n">
-        <v>268.8</v>
-      </c>
-      <c r="E19" t="n">
-        <v>270.44</v>
-      </c>
-      <c r="F19" t="n">
-        <v>269.65</v>
-      </c>
-      <c r="G19" t="n">
-        <v>269.67</v>
       </c>
     </row>
     <row r="20">
@@ -914,22 +1268,40 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>4424</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4422.83</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4247.14</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4242.11</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4041.3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3845.83</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3647.35</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3525.21</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3429.22</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3223.49</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2828.6</v>
+      </c>
+      <c r="M20" t="n">
         <v>2840.67</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2832.9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2837.39</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2826.87</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2824.21</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2826.93</v>
       </c>
     </row>
     <row r="21">
@@ -939,22 +1311,40 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>5595.17</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5597.41</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4138</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4120.63</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4122.99</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4138.67</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4139.09</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4114.37</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4103.41</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3836.27</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3605.38</v>
+      </c>
+      <c r="M21" t="n">
         <v>3602.48</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3599.19</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3585.11</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3600.09</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3609.33</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3587.94</v>
       </c>
     </row>
     <row r="22">
@@ -964,22 +1354,40 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>1315.87</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1385.43</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1772.6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1863.37</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1836.98</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1833.68</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2193.13</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2182.67</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2176.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2183.08</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2165.1</v>
+      </c>
+      <c r="M22" t="n">
         <v>1906.45</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1918.86</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1855.95</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1847.32</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1877.42</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1985.76</v>
       </c>
     </row>
     <row r="23">
@@ -989,22 +1397,40 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>374.56</v>
+      </c>
+      <c r="C23" t="n">
+        <v>374.78</v>
+      </c>
+      <c r="D23" t="n">
+        <v>437.76</v>
+      </c>
+      <c r="E23" t="n">
+        <v>438.77</v>
+      </c>
+      <c r="F23" t="n">
+        <v>437.86</v>
+      </c>
+      <c r="G23" t="n">
+        <v>438.43</v>
+      </c>
+      <c r="H23" t="n">
+        <v>438.54</v>
+      </c>
+      <c r="I23" t="n">
+        <v>438.53</v>
+      </c>
+      <c r="J23" t="n">
+        <v>437.94</v>
+      </c>
+      <c r="K23" t="n">
+        <v>437.36</v>
+      </c>
+      <c r="L23" t="n">
+        <v>437.32</v>
+      </c>
+      <c r="M23" t="n">
         <v>437.4</v>
-      </c>
-      <c r="C23" t="n">
-        <v>172.96</v>
-      </c>
-      <c r="D23" t="n">
-        <v>173.24</v>
-      </c>
-      <c r="E23" t="n">
-        <v>172.41</v>
-      </c>
-      <c r="F23" t="n">
-        <v>172.27</v>
-      </c>
-      <c r="G23" t="n">
-        <v>172.16</v>
       </c>
     </row>
     <row r="24">
@@ -1014,22 +1440,40 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>545.15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>544.42</v>
+      </c>
+      <c r="D24" t="n">
+        <v>547.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>542.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>552.77</v>
+      </c>
+      <c r="G24" t="n">
+        <v>543.98</v>
+      </c>
+      <c r="H24" t="n">
+        <v>556.91</v>
+      </c>
+      <c r="I24" t="n">
+        <v>546.01</v>
+      </c>
+      <c r="J24" t="n">
+        <v>557.08</v>
+      </c>
+      <c r="K24" t="n">
+        <v>549.91</v>
+      </c>
+      <c r="L24" t="n">
+        <v>546.35</v>
+      </c>
+      <c r="M24" t="n">
         <v>555.28</v>
-      </c>
-      <c r="C24" t="n">
-        <v>556.14</v>
-      </c>
-      <c r="D24" t="n">
-        <v>547.47</v>
-      </c>
-      <c r="E24" t="n">
-        <v>554.09</v>
-      </c>
-      <c r="F24" t="n">
-        <v>544.99</v>
-      </c>
-      <c r="G24" t="n">
-        <v>553.88</v>
       </c>
     </row>
     <row r="25">
@@ -1039,22 +1483,40 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>1078.23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1077.63</v>
+      </c>
+      <c r="D25" t="n">
+        <v>793.96</v>
+      </c>
+      <c r="E25" t="n">
+        <v>794.75</v>
+      </c>
+      <c r="F25" t="n">
+        <v>794.0700000000001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>792.98</v>
+      </c>
+      <c r="H25" t="n">
+        <v>796.26</v>
+      </c>
+      <c r="I25" t="n">
+        <v>795.5700000000001</v>
+      </c>
+      <c r="J25" t="n">
+        <v>788.8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>794.16</v>
+      </c>
+      <c r="L25" t="n">
+        <v>794.0700000000001</v>
+      </c>
+      <c r="M25" t="n">
         <v>788.34</v>
-      </c>
-      <c r="C25" t="n">
-        <v>790.16</v>
-      </c>
-      <c r="D25" t="n">
-        <v>787.9400000000001</v>
-      </c>
-      <c r="E25" t="n">
-        <v>795.29</v>
-      </c>
-      <c r="F25" t="n">
-        <v>795.17</v>
-      </c>
-      <c r="G25" t="n">
-        <v>792.76</v>
       </c>
     </row>
     <row r="26">
@@ -1064,22 +1526,38 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>3267.45</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>3285.8</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3262.04</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3286.89</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3276.38</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3278.11</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3289.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3268.11</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3260.77</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3279.03</v>
+      </c>
+      <c r="M26" t="n">
         <v>3276.4</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3282.45</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3286.44</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3286.32</v>
-      </c>
-      <c r="F26" t="n">
-        <v>3287.63</v>
-      </c>
-      <c r="G26" t="n">
-        <v>3284.61</v>
       </c>
     </row>
     <row r="27">
@@ -1089,22 +1567,40 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>2770.12</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2765.1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2788.78</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2763.29</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2806.09</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2770.27</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2774.69</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2802.06</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2769.66</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2784.74</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2778.9</v>
+      </c>
+      <c r="M27" t="n">
         <v>2766.32</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2796.19</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2786.33</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2787.83</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2766.74</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2778.91</v>
       </c>
     </row>
     <row r="28">
@@ -1114,22 +1610,40 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>516.4400000000001</v>
+      </c>
+      <c r="C28" t="n">
+        <v>518.48</v>
+      </c>
+      <c r="D28" t="n">
+        <v>522.2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>521.95</v>
+      </c>
+      <c r="F28" t="n">
+        <v>523.1900000000001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>521.14</v>
+      </c>
+      <c r="H28" t="n">
+        <v>516.28</v>
+      </c>
+      <c r="I28" t="n">
+        <v>521.2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>516.02</v>
+      </c>
+      <c r="K28" t="n">
+        <v>518.13</v>
+      </c>
+      <c r="L28" t="n">
+        <v>521.22</v>
+      </c>
+      <c r="M28" t="n">
         <v>523.29</v>
-      </c>
-      <c r="C28" t="n">
-        <v>527.78</v>
-      </c>
-      <c r="D28" t="n">
-        <v>515.65</v>
-      </c>
-      <c r="E28" t="n">
-        <v>517.63</v>
-      </c>
-      <c r="F28" t="n">
-        <v>520.46</v>
-      </c>
-      <c r="G28" t="n">
-        <v>513.14</v>
       </c>
     </row>
     <row r="29">
@@ -1139,22 +1653,40 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>3492.43</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3514.85</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3502.69</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3515.49</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3518.34</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3504.58</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3499.31</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3499.22</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3491.79</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3504.51</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3509.3</v>
+      </c>
+      <c r="M29" t="n">
         <v>3509.42</v>
-      </c>
-      <c r="C29" t="n">
-        <v>3498.16</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3488.45</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3499.86</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3492.97</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3522.98</v>
       </c>
     </row>
     <row r="30">
@@ -1164,22 +1696,40 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>2590.2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2596.22</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2445.25</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2396.61</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2580.7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2608.8</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2630.9</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2619.22</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2622.63</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2628.43</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2624</v>
+      </c>
+      <c r="M30" t="n">
         <v>2553.75</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2401.32</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2401.19</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2439.96</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2406.32</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2627.27</v>
       </c>
     </row>
     <row r="31">
@@ -1189,17 +1739,41 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>15003.99</v>
+      </c>
+      <c r="C31" t="n">
+        <v>15015.07</v>
+      </c>
+      <c r="D31" t="n">
+        <v>14987.47</v>
+      </c>
+      <c r="E31" t="n">
+        <v>14967.4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>14964.31</v>
+      </c>
+      <c r="G31" t="n">
+        <v>14995.42</v>
+      </c>
+      <c r="H31" t="n">
+        <v>15019.44</v>
+      </c>
+      <c r="I31" t="n">
+        <v>15021.19</v>
+      </c>
+      <c r="J31" t="n">
+        <v>15012.35</v>
+      </c>
+      <c r="K31" t="n">
+        <v>15009.82</v>
+      </c>
+      <c r="L31" t="n">
+        <v>15022.93</v>
+      </c>
+      <c r="M31" t="n">
         <v>14990.83</v>
       </c>
-      <c r="C31" t="n">
-        <v>14989.8</v>
-      </c>
-      <c r="D31" t="n">
-        <v>9762.4</v>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1208,22 +1782,40 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>3422.86</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2302.79</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2302.96</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2307.89</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2306.37</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2303.38</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2300.74</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2304.86</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2302.41</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2307.92</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2300.31</v>
+      </c>
+      <c r="M32" t="n">
         <v>2306.17</v>
-      </c>
-      <c r="C32" t="n">
-        <v>2303.31</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2299.25</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2304.39</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2307.38</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2299.71</v>
       </c>
     </row>
     <row r="33">
@@ -1233,22 +1825,40 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>6435.31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4228.75</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5921.86</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5873.48</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5876.35</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5691.69</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5637.77</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5629.76</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5564.2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5466.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5235.91</v>
+      </c>
+      <c r="M33" t="n">
         <v>5152.16</v>
-      </c>
-      <c r="C33" t="n">
-        <v>5142.32</v>
-      </c>
-      <c r="D33" t="n">
-        <v>5029.13</v>
-      </c>
-      <c r="E33" t="n">
-        <v>4668.97</v>
-      </c>
-      <c r="F33" t="n">
-        <v>4672.87</v>
-      </c>
-      <c r="G33" t="n">
-        <v>4757.99</v>
       </c>
     </row>
     <row r="34">
@@ -1258,22 +1868,40 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>199494.62</v>
+      </c>
+      <c r="C34" t="n">
+        <v>109947.45</v>
+      </c>
+      <c r="D34" t="n">
+        <v>183577.56</v>
+      </c>
+      <c r="E34" t="n">
+        <v>182077.97</v>
+      </c>
+      <c r="F34" t="n">
+        <v>182166.8</v>
+      </c>
+      <c r="G34" t="n">
+        <v>176442.47</v>
+      </c>
+      <c r="H34" t="n">
+        <v>174770.82</v>
+      </c>
+      <c r="I34" t="n">
+        <v>174522.59</v>
+      </c>
+      <c r="J34" t="n">
+        <v>172490.15</v>
+      </c>
+      <c r="K34" t="n">
+        <v>169461.43</v>
+      </c>
+      <c r="L34" t="n">
+        <v>162313.2</v>
+      </c>
+      <c r="M34" t="n">
         <v>159717.02</v>
-      </c>
-      <c r="C34" t="n">
-        <v>159412.03</v>
-      </c>
-      <c r="D34" t="n">
-        <v>150874.01</v>
-      </c>
-      <c r="E34" t="n">
-        <v>135400.25</v>
-      </c>
-      <c r="F34" t="n">
-        <v>135513.11</v>
-      </c>
-      <c r="G34" t="n">
-        <v>137981.62</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5057.13</v>
+        <v>3075.68</v>
       </c>
       <c r="C2" t="n">
-        <v>5034.36</v>
+        <v>3082.31</v>
       </c>
       <c r="D2" t="n">
-        <v>5058.45</v>
+        <v>3077.98</v>
       </c>
       <c r="E2" t="n">
-        <v>5056.23</v>
+        <v>2946.52</v>
       </c>
       <c r="F2" t="n">
-        <v>5059.6</v>
+        <v>2944.72</v>
       </c>
       <c r="G2" t="n">
-        <v>3545.58</v>
+        <v>2932.33</v>
       </c>
       <c r="H2" t="n">
-        <v>3556.35</v>
+        <v>2924.17</v>
       </c>
       <c r="I2" t="n">
-        <v>3550.39</v>
+        <v>2938.41</v>
       </c>
       <c r="J2" t="n">
-        <v>3534.58</v>
+        <v>2911.68</v>
       </c>
       <c r="K2" t="n">
-        <v>3104.85</v>
+        <v>2925.89</v>
       </c>
       <c r="L2" t="n">
-        <v>3088.31</v>
+        <v>2923.36</v>
       </c>
       <c r="M2" t="n">
-        <v>3075.68</v>
+        <v>2948.16</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2929.58</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3166.72</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3692.89</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3084.29</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4178.65</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4671.57</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4690.13</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3583.65</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3565.49</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3617.22</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3581.47</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3019.28</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2980.39</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3006.92</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11386.1</v>
+        <v>11402.03</v>
       </c>
       <c r="C3" t="n">
-        <v>11336.13</v>
+        <v>11404.69</v>
       </c>
       <c r="D3" t="n">
-        <v>11406.02</v>
+        <v>11349.11</v>
       </c>
       <c r="E3" t="n">
-        <v>11335.34</v>
+        <v>11372.71</v>
       </c>
       <c r="F3" t="n">
-        <v>11412.85</v>
+        <v>11419.76</v>
       </c>
       <c r="G3" t="n">
-        <v>11400.62</v>
+        <v>12673.74</v>
       </c>
       <c r="H3" t="n">
-        <v>11392.12</v>
+        <v>12676.01</v>
       </c>
       <c r="I3" t="n">
-        <v>11383.01</v>
+        <v>12668.52</v>
       </c>
       <c r="J3" t="n">
-        <v>11370.98</v>
+        <v>13591.82</v>
       </c>
       <c r="K3" t="n">
-        <v>11377.58</v>
+        <v>13592.73</v>
       </c>
       <c r="L3" t="n">
-        <v>11362.41</v>
+        <v>13617.41</v>
       </c>
       <c r="M3" t="n">
-        <v>11402.03</v>
+        <v>12451.53</v>
+      </c>
+      <c r="N3" t="n">
+        <v>12430</v>
+      </c>
+      <c r="O3" t="n">
+        <v>12446.99</v>
+      </c>
+      <c r="P3" t="n">
+        <v>12462.86</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>13569.56</v>
+      </c>
+      <c r="R3" t="n">
+        <v>13576.87</v>
+      </c>
+      <c r="S3" t="n">
+        <v>13553.34</v>
+      </c>
+      <c r="T3" t="n">
+        <v>13565.91</v>
+      </c>
+      <c r="U3" t="n">
+        <v>13590.53</v>
+      </c>
+      <c r="V3" t="n">
+        <v>13520.84</v>
+      </c>
+      <c r="W3" t="n">
+        <v>13595.76</v>
+      </c>
+      <c r="X3" t="n">
+        <v>15293.69</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15269.28</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>13831.92</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>13853.68</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1036.47</v>
+        <v>1041</v>
       </c>
       <c r="C4" t="n">
-        <v>1033.62</v>
+        <v>1037.22</v>
       </c>
       <c r="D4" t="n">
-        <v>1042.34</v>
+        <v>1038.15</v>
       </c>
       <c r="E4" t="n">
-        <v>1041.22</v>
+        <v>1038.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1039.62</v>
+        <v>1042.51</v>
       </c>
       <c r="G4" t="n">
-        <v>1031.42</v>
+        <v>1028.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1033.13</v>
+        <v>1031.04</v>
       </c>
       <c r="I4" t="n">
-        <v>1042.12</v>
+        <v>1033.52</v>
       </c>
       <c r="J4" t="n">
-        <v>1035.74</v>
+        <v>1031.03</v>
       </c>
       <c r="K4" t="n">
-        <v>1041.99</v>
+        <v>1032.78</v>
       </c>
       <c r="L4" t="n">
-        <v>1042.33</v>
+        <v>1041.51</v>
       </c>
       <c r="M4" t="n">
-        <v>1041</v>
+        <v>1031.13</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1028.04</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1034.59</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1040.15</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1031.01</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1028.61</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1032.78</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1031.55</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1028.76</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1034.48</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1041.78</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1037.88</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1037.72</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1030.03</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1028.5</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2685.23</v>
+        <v>2677.23</v>
       </c>
       <c r="C5" t="n">
-        <v>2672.24</v>
+        <v>2678.58</v>
       </c>
       <c r="D5" t="n">
-        <v>2673.96</v>
+        <v>2671.12</v>
       </c>
       <c r="E5" t="n">
-        <v>2681.86</v>
+        <v>2670.69</v>
       </c>
       <c r="F5" t="n">
-        <v>2680.95</v>
+        <v>2671.04</v>
       </c>
       <c r="G5" t="n">
-        <v>2685.95</v>
+        <v>2682.68</v>
       </c>
       <c r="H5" t="n">
-        <v>2684.51</v>
+        <v>2688.66</v>
       </c>
       <c r="I5" t="n">
-        <v>2671.66</v>
+        <v>2658.31</v>
       </c>
       <c r="J5" t="n">
-        <v>2680.74</v>
+        <v>3168.27</v>
       </c>
       <c r="K5" t="n">
-        <v>2686.56</v>
+        <v>3190.12</v>
       </c>
       <c r="L5" t="n">
-        <v>2681.43</v>
+        <v>3180.12</v>
       </c>
       <c r="M5" t="n">
-        <v>2677.23</v>
+        <v>3191.67</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3181.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3182.05</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3166.59</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3729.38</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3723.21</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3740.74</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3739.99</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3738.98</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3708.51</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3750.03</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3718.03</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3704.06</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3714.57</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>3719.16</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4044.99</v>
+        <v>4055.6</v>
       </c>
       <c r="C6" t="n">
-        <v>4057.08</v>
+        <v>4071.69</v>
       </c>
       <c r="D6" t="n">
-        <v>4057.09</v>
+        <v>4059.45</v>
       </c>
       <c r="E6" t="n">
-        <v>4075.53</v>
+        <v>4058.36</v>
       </c>
       <c r="F6" t="n">
-        <v>4062.11</v>
+        <v>4065.11</v>
       </c>
       <c r="G6" t="n">
-        <v>4063.33</v>
+        <v>4055.22</v>
       </c>
       <c r="H6" t="n">
-        <v>4046.98</v>
+        <v>4057.95</v>
       </c>
       <c r="I6" t="n">
-        <v>4044.8</v>
+        <v>4045.68</v>
       </c>
       <c r="J6" t="n">
-        <v>4048.64</v>
+        <v>4048.27</v>
       </c>
       <c r="K6" t="n">
-        <v>4040.94</v>
+        <v>5358.92</v>
       </c>
       <c r="L6" t="n">
-        <v>4044.31</v>
+        <v>5373.31</v>
       </c>
       <c r="M6" t="n">
-        <v>4055.6</v>
+        <v>5368.73</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5378.82</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5351.85</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5378.05</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5370.47</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5369.72</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5343.46</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5354.74</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5350.18</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5343.01</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5383.78</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8317.49</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8319.24</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8313.030000000001</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>8366.35</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14787.53</v>
+        <v>14741.17</v>
       </c>
       <c r="C7" t="n">
-        <v>14760.18</v>
+        <v>14738.5</v>
       </c>
       <c r="D7" t="n">
-        <v>14794.89</v>
+        <v>12791.11</v>
       </c>
       <c r="E7" t="n">
-        <v>14727.35</v>
+        <v>6940.17</v>
       </c>
       <c r="F7" t="n">
-        <v>14763.66</v>
+        <v>6935.03</v>
       </c>
       <c r="G7" t="n">
-        <v>14730.5</v>
+        <v>6888.02</v>
       </c>
       <c r="H7" t="n">
-        <v>14747.22</v>
+        <v>6925.82</v>
       </c>
       <c r="I7" t="n">
-        <v>14720.01</v>
+        <v>6895.17</v>
       </c>
       <c r="J7" t="n">
-        <v>14792.79</v>
+        <v>6915.43</v>
       </c>
       <c r="K7" t="n">
-        <v>14766.26</v>
+        <v>6919.99</v>
       </c>
       <c r="L7" t="n">
-        <v>14793.08</v>
+        <v>6892.41</v>
       </c>
       <c r="M7" t="n">
-        <v>14741.17</v>
+        <v>6919.84</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5934.42</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5922.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5947.8</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5901.33</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5942.46</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5924.81</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5932.64</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5954.31</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5931.86</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5907.18</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5873.13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>5933.05</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>5957.34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>5959.9</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +1082,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>839.96</v>
+        <v>840.74</v>
       </c>
       <c r="C8" t="n">
-        <v>838.42</v>
+        <v>837.58</v>
       </c>
       <c r="D8" t="n">
-        <v>840.22</v>
+        <v>838.9</v>
       </c>
       <c r="E8" t="n">
-        <v>838.03</v>
+        <v>842.22</v>
       </c>
       <c r="F8" t="n">
-        <v>838.36</v>
+        <v>842.5</v>
       </c>
       <c r="G8" t="n">
-        <v>842.22</v>
+        <v>842.35</v>
       </c>
       <c r="H8" t="n">
-        <v>841.97</v>
+        <v>840.08</v>
       </c>
       <c r="I8" t="n">
-        <v>841.78</v>
+        <v>835.13</v>
       </c>
       <c r="J8" t="n">
-        <v>838.96</v>
+        <v>840.77</v>
       </c>
       <c r="K8" t="n">
-        <v>838.53</v>
+        <v>972.65</v>
       </c>
       <c r="L8" t="n">
-        <v>839</v>
+        <v>971.53</v>
       </c>
       <c r="M8" t="n">
-        <v>840.74</v>
+        <v>972.28</v>
+      </c>
+      <c r="N8" t="n">
+        <v>973.23</v>
+      </c>
+      <c r="O8" t="n">
+        <v>968.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>972.11</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>969.77</v>
+      </c>
+      <c r="R8" t="n">
+        <v>969.17</v>
+      </c>
+      <c r="S8" t="n">
+        <v>972.16</v>
+      </c>
+      <c r="T8" t="n">
+        <v>966.29</v>
+      </c>
+      <c r="U8" t="n">
+        <v>968.63</v>
+      </c>
+      <c r="V8" t="n">
+        <v>972.0700000000001</v>
+      </c>
+      <c r="W8" t="n">
+        <v>970.72</v>
+      </c>
+      <c r="X8" t="n">
+        <v>62.17</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>67.36</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>68.16</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +1167,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26833.05</v>
+        <v>26676.55</v>
       </c>
       <c r="C9" t="n">
-        <v>26726.53</v>
+        <v>26811.41</v>
       </c>
       <c r="D9" t="n">
-        <v>26761.37</v>
+        <v>26596.79</v>
       </c>
       <c r="E9" t="n">
-        <v>26703.49</v>
+        <v>26655.76</v>
       </c>
       <c r="F9" t="n">
-        <v>26666.45</v>
+        <v>26713.62</v>
       </c>
       <c r="G9" t="n">
-        <v>26838.01</v>
+        <v>26756.08</v>
       </c>
       <c r="H9" t="n">
-        <v>26626.1</v>
+        <v>26679.46</v>
       </c>
       <c r="I9" t="n">
-        <v>26785.97</v>
+        <v>26672.44</v>
       </c>
       <c r="J9" t="n">
-        <v>26615.63</v>
+        <v>26609.35</v>
       </c>
       <c r="K9" t="n">
-        <v>26709.59</v>
+        <v>26703.11</v>
       </c>
       <c r="L9" t="n">
-        <v>26741.92</v>
+        <v>26727.53</v>
       </c>
       <c r="M9" t="n">
-        <v>26676.55</v>
+        <v>26693.37</v>
+      </c>
+      <c r="N9" t="n">
+        <v>26822.62</v>
+      </c>
+      <c r="O9" t="n">
+        <v>26704.57</v>
+      </c>
+      <c r="P9" t="n">
+        <v>26638.82</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>26634.17</v>
+      </c>
+      <c r="R9" t="n">
+        <v>26663.47</v>
+      </c>
+      <c r="S9" t="n">
+        <v>26756.16</v>
+      </c>
+      <c r="T9" t="n">
+        <v>26813.84</v>
+      </c>
+      <c r="U9" t="n">
+        <v>26598.84</v>
+      </c>
+      <c r="V9" t="n">
+        <v>26603.57</v>
+      </c>
+      <c r="W9" t="n">
+        <v>26616.41</v>
+      </c>
+      <c r="X9" t="n">
+        <v>26578.77</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>26699.04</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>26688.8</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>26682.68</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +1252,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.57</v>
+        <v>48.48</v>
       </c>
       <c r="C10" t="n">
-        <v>407.39</v>
+        <v>48.63</v>
       </c>
       <c r="D10" t="n">
-        <v>407.12</v>
+        <v>48.31</v>
       </c>
       <c r="E10" t="n">
-        <v>406.78</v>
+        <v>48.72</v>
       </c>
       <c r="F10" t="n">
-        <v>406.58</v>
+        <v>48.59</v>
       </c>
       <c r="G10" t="n">
-        <v>406.16</v>
+        <v>48.57</v>
       </c>
       <c r="H10" t="n">
-        <v>408.05</v>
+        <v>48.47</v>
       </c>
       <c r="I10" t="n">
-        <v>406.54</v>
+        <v>48.17</v>
       </c>
       <c r="J10" t="n">
-        <v>406.58</v>
+        <v>48.66</v>
       </c>
       <c r="K10" t="n">
-        <v>48.58</v>
+        <v>48.44</v>
       </c>
       <c r="L10" t="n">
-        <v>48.45</v>
+        <v>245.58</v>
       </c>
       <c r="M10" t="n">
-        <v>48.48</v>
+        <v>246.98</v>
+      </c>
+      <c r="N10" t="n">
+        <v>247.31</v>
+      </c>
+      <c r="O10" t="n">
+        <v>87.67</v>
+      </c>
+      <c r="P10" t="n">
+        <v>78.31999999999999</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>78.48</v>
+      </c>
+      <c r="R10" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>78.28</v>
+      </c>
+      <c r="T10" t="n">
+        <v>78.38</v>
+      </c>
+      <c r="U10" t="n">
+        <v>78.47</v>
+      </c>
+      <c r="V10" t="n">
+        <v>78.45</v>
+      </c>
+      <c r="W10" t="n">
+        <v>78.53</v>
+      </c>
+      <c r="X10" t="n">
+        <v>78.76000000000001</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>78.86</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>74.54000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -889,41 +1337,35 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2807.4</v>
+        <v>860.26</v>
       </c>
       <c r="C11" t="n">
-        <v>850.3200000000001</v>
-      </c>
-      <c r="D11" t="n">
-        <v>898.6900000000001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>878.77</v>
-      </c>
-      <c r="F11" t="n">
-        <v>852.38</v>
-      </c>
-      <c r="G11" t="n">
-        <v>857.4400000000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>901.66</v>
-      </c>
-      <c r="I11" t="n">
-        <v>843.25</v>
-      </c>
-      <c r="J11" t="n">
-        <v>899.6900000000001</v>
-      </c>
-      <c r="K11" t="n">
-        <v>846.75</v>
-      </c>
-      <c r="L11" t="n">
-        <v>851.66</v>
-      </c>
-      <c r="M11" t="n">
-        <v>860.26</v>
-      </c>
+        <v>902.5700000000001</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -967,6 +1409,30 @@
       <c r="M12" t="n">
         <v>0</v>
       </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -975,38 +1441,82 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59038.51</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>29685.82</v>
+      </c>
+      <c r="C13" t="n">
+        <v>29641.25</v>
+      </c>
       <c r="D13" t="n">
-        <v>47512.15</v>
+        <v>29616.99</v>
       </c>
       <c r="E13" t="n">
-        <v>45804.27</v>
+        <v>29678.44</v>
       </c>
       <c r="F13" t="n">
-        <v>45808.53</v>
+        <v>29614.03</v>
       </c>
       <c r="G13" t="n">
-        <v>41685.14</v>
+        <v>29627.4</v>
       </c>
       <c r="H13" t="n">
-        <v>39913.41</v>
+        <v>29651.48</v>
       </c>
       <c r="I13" t="n">
-        <v>39842.31</v>
+        <v>29519.25</v>
       </c>
       <c r="J13" t="n">
-        <v>38049.05</v>
+        <v>27672.97</v>
       </c>
       <c r="K13" t="n">
-        <v>37725.22</v>
+        <v>27572.22</v>
       </c>
       <c r="L13" t="n">
-        <v>31670.82</v>
+        <v>27611.21</v>
       </c>
       <c r="M13" t="n">
-        <v>29685.82</v>
+        <v>26681.73</v>
+      </c>
+      <c r="N13" t="n">
+        <v>26652.42</v>
+      </c>
+      <c r="O13" t="n">
+        <v>26713.39</v>
+      </c>
+      <c r="P13" t="n">
+        <v>26716</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>26726.33</v>
+      </c>
+      <c r="R13" t="n">
+        <v>26673.83</v>
+      </c>
+      <c r="S13" t="n">
+        <v>26697.38</v>
+      </c>
+      <c r="T13" t="n">
+        <v>26708.89</v>
+      </c>
+      <c r="U13" t="n">
+        <v>26688.69</v>
+      </c>
+      <c r="V13" t="n">
+        <v>26707.43</v>
+      </c>
+      <c r="W13" t="n">
+        <v>26764.83</v>
+      </c>
+      <c r="X13" t="n">
+        <v>26705.02</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>26754.02</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>26720.4</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>26720.07</v>
       </c>
     </row>
     <row r="14">
@@ -1016,38 +1526,82 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18391.88</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>16371.27</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16372.8</v>
+      </c>
       <c r="D14" t="n">
-        <v>18367.48</v>
+        <v>16332.57</v>
       </c>
       <c r="E14" t="n">
-        <v>18359.76</v>
+        <v>16389.77</v>
       </c>
       <c r="F14" t="n">
-        <v>18361.31</v>
+        <v>16343.44</v>
       </c>
       <c r="G14" t="n">
-        <v>18355.98</v>
+        <v>16390.65</v>
       </c>
       <c r="H14" t="n">
-        <v>18386.46</v>
+        <v>15025.22</v>
       </c>
       <c r="I14" t="n">
-        <v>18374.11</v>
+        <v>14935.74</v>
       </c>
       <c r="J14" t="n">
-        <v>18373.78</v>
+        <v>15031.57</v>
       </c>
       <c r="K14" t="n">
-        <v>16815.8</v>
+        <v>15023.16</v>
       </c>
       <c r="L14" t="n">
-        <v>16349.29</v>
+        <v>15029.57</v>
       </c>
       <c r="M14" t="n">
-        <v>16371.27</v>
+        <v>15003.38</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15008.36</v>
+      </c>
+      <c r="O14" t="n">
+        <v>15021.3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>15025.65</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>15011.31</v>
+      </c>
+      <c r="R14" t="n">
+        <v>14993.75</v>
+      </c>
+      <c r="S14" t="n">
+        <v>15014.62</v>
+      </c>
+      <c r="T14" t="n">
+        <v>15008.81</v>
+      </c>
+      <c r="U14" t="n">
+        <v>13307.56</v>
+      </c>
+      <c r="V14" t="n">
+        <v>13272.41</v>
+      </c>
+      <c r="W14" t="n">
+        <v>13313.43</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13282.06</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>13286.61</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>13333.39</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>13305.94</v>
       </c>
     </row>
     <row r="15">
@@ -1057,39 +1611,63 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>272.72</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>303.55</v>
+      </c>
+      <c r="C15" t="n">
+        <v>279.22</v>
+      </c>
       <c r="D15" t="n">
-        <v>287.23</v>
+        <v>293.49</v>
       </c>
       <c r="E15" t="n">
-        <v>303.99</v>
+        <v>252.05</v>
       </c>
       <c r="F15" t="n">
-        <v>292.34</v>
+        <v>263.92</v>
       </c>
       <c r="G15" t="n">
-        <v>288.29</v>
+        <v>271.39</v>
       </c>
       <c r="H15" t="n">
-        <v>278.24</v>
+        <v>267.94</v>
       </c>
       <c r="I15" t="n">
-        <v>280.96</v>
+        <v>305.63</v>
       </c>
       <c r="J15" t="n">
-        <v>279.81</v>
+        <v>250.58</v>
       </c>
       <c r="K15" t="n">
-        <v>279.24</v>
+        <v>308.63</v>
       </c>
       <c r="L15" t="n">
-        <v>266.85</v>
+        <v>262.58</v>
       </c>
       <c r="M15" t="n">
-        <v>303.55</v>
-      </c>
+        <v>281.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>304.66</v>
+      </c>
+      <c r="O15" t="n">
+        <v>277.48</v>
+      </c>
+      <c r="P15" t="n">
+        <v>281.91</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>303.28</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1098,38 +1676,82 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5405.32</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>5740</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5705.79</v>
+      </c>
       <c r="D16" t="n">
-        <v>5568.52</v>
+        <v>5685.84</v>
       </c>
       <c r="E16" t="n">
-        <v>6037.37</v>
+        <v>5752.95</v>
       </c>
       <c r="F16" t="n">
-        <v>6044.91</v>
+        <v>5858.36</v>
       </c>
       <c r="G16" t="n">
-        <v>6006.43</v>
+        <v>7389.22</v>
       </c>
       <c r="H16" t="n">
-        <v>6045.84</v>
+        <v>7322.46</v>
       </c>
       <c r="I16" t="n">
-        <v>5971.76</v>
+        <v>8372.110000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>5963.19</v>
+        <v>8362.709999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>6008.56</v>
+        <v>8883.66</v>
       </c>
       <c r="L16" t="n">
-        <v>6011.87</v>
+        <v>8906.67</v>
       </c>
       <c r="M16" t="n">
-        <v>5740</v>
+        <v>8799.66</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8925.57</v>
+      </c>
+      <c r="O16" t="n">
+        <v>8892.690000000001</v>
+      </c>
+      <c r="P16" t="n">
+        <v>8912.780000000001</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>9522.35</v>
+      </c>
+      <c r="R16" t="n">
+        <v>9482.790000000001</v>
+      </c>
+      <c r="S16" t="n">
+        <v>9548.99</v>
+      </c>
+      <c r="T16" t="n">
+        <v>9479.18</v>
+      </c>
+      <c r="U16" t="n">
+        <v>9380.629999999999</v>
+      </c>
+      <c r="V16" t="n">
+        <v>9396.110000000001</v>
+      </c>
+      <c r="W16" t="n">
+        <v>9536.99</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9490.360000000001</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8830.379999999999</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8736.34</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>8695.84</v>
       </c>
     </row>
     <row r="17">
@@ -1139,40 +1761,82 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1782.22</v>
+        <v>1820.08</v>
       </c>
       <c r="C17" t="n">
-        <v>1797.92</v>
+        <v>1814.43</v>
       </c>
       <c r="D17" t="n">
-        <v>1805.75</v>
+        <v>1829.57</v>
       </c>
       <c r="E17" t="n">
-        <v>1773.27</v>
+        <v>1798.3</v>
       </c>
       <c r="F17" t="n">
-        <v>1790.54</v>
+        <v>1821.88</v>
       </c>
       <c r="G17" t="n">
-        <v>1813.21</v>
+        <v>1135.15</v>
       </c>
       <c r="H17" t="n">
-        <v>1802.75</v>
+        <v>1105.46</v>
       </c>
       <c r="I17" t="n">
-        <v>1785.31</v>
+        <v>1094.89</v>
       </c>
       <c r="J17" t="n">
-        <v>1807.87</v>
+        <v>1086.25</v>
       </c>
       <c r="K17" t="n">
-        <v>1814.81</v>
+        <v>1127.81</v>
       </c>
       <c r="L17" t="n">
-        <v>1785.91</v>
+        <v>1128.96</v>
       </c>
       <c r="M17" t="n">
-        <v>1820.08</v>
+        <v>1133.46</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1082.05</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1074.26</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1228.35</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1078.59</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1108.7</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1089.52</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1067.9</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1127.89</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1127.46</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1043.84</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1160.65</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1068.22</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1039.65</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1042.04</v>
       </c>
     </row>
     <row r="18">
@@ -1182,40 +1846,82 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>49.69</v>
+        <v>50.14</v>
       </c>
       <c r="C18" t="n">
-        <v>48.64</v>
+        <v>46.7</v>
       </c>
       <c r="D18" t="n">
-        <v>53.96</v>
+        <v>49.02</v>
       </c>
       <c r="E18" t="n">
-        <v>47.94</v>
+        <v>52.79</v>
       </c>
       <c r="F18" t="n">
-        <v>45.91</v>
+        <v>54.06</v>
       </c>
       <c r="G18" t="n">
-        <v>48.1</v>
+        <v>44.5</v>
       </c>
       <c r="H18" t="n">
-        <v>46.48</v>
+        <v>55.02</v>
       </c>
       <c r="I18" t="n">
-        <v>47.78</v>
+        <v>50.06</v>
       </c>
       <c r="J18" t="n">
-        <v>47.4</v>
+        <v>48.55</v>
       </c>
       <c r="K18" t="n">
-        <v>47.08</v>
+        <v>553.91</v>
       </c>
       <c r="L18" t="n">
-        <v>53.41</v>
+        <v>550.3200000000001</v>
       </c>
       <c r="M18" t="n">
-        <v>50.14</v>
+        <v>549.3200000000001</v>
+      </c>
+      <c r="N18" t="n">
+        <v>548.99</v>
+      </c>
+      <c r="O18" t="n">
+        <v>549.14</v>
+      </c>
+      <c r="P18" t="n">
+        <v>550.27</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>547.33</v>
+      </c>
+      <c r="R18" t="n">
+        <v>547.0700000000001</v>
+      </c>
+      <c r="S18" t="n">
+        <v>546.9400000000001</v>
+      </c>
+      <c r="T18" t="n">
+        <v>548.41</v>
+      </c>
+      <c r="U18" t="n">
+        <v>550.59</v>
+      </c>
+      <c r="V18" t="n">
+        <v>555.42</v>
+      </c>
+      <c r="W18" t="n">
+        <v>551.38</v>
+      </c>
+      <c r="X18" t="n">
+        <v>555.14</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>551.63</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>548.96</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>548.0700000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1225,40 +1931,82 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>270.38</v>
+        <v>270.62</v>
       </c>
       <c r="C19" t="n">
-        <v>269.61</v>
+        <v>269.44</v>
       </c>
       <c r="D19" t="n">
-        <v>270.21</v>
+        <v>268.8</v>
       </c>
       <c r="E19" t="n">
-        <v>269.97</v>
+        <v>270.44</v>
       </c>
       <c r="F19" t="n">
-        <v>268.84</v>
+        <v>269.65</v>
       </c>
       <c r="G19" t="n">
-        <v>270.55</v>
+        <v>269.67</v>
       </c>
       <c r="H19" t="n">
-        <v>268.8</v>
+        <v>271.06</v>
       </c>
       <c r="I19" t="n">
-        <v>271.22</v>
+        <v>267.83</v>
       </c>
       <c r="J19" t="n">
-        <v>269.1</v>
+        <v>270.6</v>
       </c>
       <c r="K19" t="n">
+        <v>271.05</v>
+      </c>
+      <c r="L19" t="n">
+        <v>268.67</v>
+      </c>
+      <c r="M19" t="n">
+        <v>270.71</v>
+      </c>
+      <c r="N19" t="n">
+        <v>268.41</v>
+      </c>
+      <c r="O19" t="n">
+        <v>269.53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>268.88</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>270.71</v>
+      </c>
+      <c r="R19" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="S19" t="n">
+        <v>269.58</v>
+      </c>
+      <c r="T19" t="n">
         <v>270.5</v>
       </c>
-      <c r="L19" t="n">
-        <v>269.64</v>
-      </c>
-      <c r="M19" t="n">
-        <v>270.62</v>
+      <c r="U19" t="n">
+        <v>270.66</v>
+      </c>
+      <c r="V19" t="n">
+        <v>268.89</v>
+      </c>
+      <c r="W19" t="n">
+        <v>267.75</v>
+      </c>
+      <c r="X19" t="n">
+        <v>268.66</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>268.96</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>271.01</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>270.2</v>
       </c>
     </row>
     <row r="20">
@@ -1268,40 +2016,82 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4424</v>
+        <v>2840.67</v>
       </c>
       <c r="C20" t="n">
-        <v>4422.83</v>
+        <v>2832.9</v>
       </c>
       <c r="D20" t="n">
-        <v>4247.14</v>
+        <v>2837.39</v>
       </c>
       <c r="E20" t="n">
-        <v>4242.11</v>
+        <v>2826.87</v>
       </c>
       <c r="F20" t="n">
-        <v>4041.3</v>
+        <v>2824.21</v>
       </c>
       <c r="G20" t="n">
-        <v>3845.83</v>
+        <v>2826.93</v>
       </c>
       <c r="H20" t="n">
-        <v>3647.35</v>
+        <v>2843.74</v>
       </c>
       <c r="I20" t="n">
-        <v>3525.21</v>
+        <v>2826.07</v>
       </c>
       <c r="J20" t="n">
-        <v>3429.22</v>
+        <v>2829.24</v>
       </c>
       <c r="K20" t="n">
-        <v>3223.49</v>
+        <v>2830.73</v>
       </c>
       <c r="L20" t="n">
-        <v>2828.6</v>
+        <v>2836.33</v>
       </c>
       <c r="M20" t="n">
-        <v>2840.67</v>
+        <v>2831.57</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2841.67</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2829.68</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2842.53</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2839.58</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2835.26</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2836.53</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2825.72</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2820.06</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2821.08</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2849.6</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3122.97</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3150.74</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>3118.97</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3151.81</v>
       </c>
     </row>
     <row r="21">
@@ -1311,40 +2101,82 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5595.17</v>
+        <v>3602.48</v>
       </c>
       <c r="C21" t="n">
-        <v>5597.41</v>
+        <v>3599.19</v>
       </c>
       <c r="D21" t="n">
-        <v>4138</v>
+        <v>3585.11</v>
       </c>
       <c r="E21" t="n">
-        <v>4120.63</v>
+        <v>3600.09</v>
       </c>
       <c r="F21" t="n">
-        <v>4122.99</v>
+        <v>3609.33</v>
       </c>
       <c r="G21" t="n">
-        <v>4138.67</v>
+        <v>3587.94</v>
       </c>
       <c r="H21" t="n">
-        <v>4139.09</v>
+        <v>3642.14</v>
       </c>
       <c r="I21" t="n">
-        <v>4114.37</v>
+        <v>3592.41</v>
       </c>
       <c r="J21" t="n">
-        <v>4103.41</v>
+        <v>3588.93</v>
       </c>
       <c r="K21" t="n">
-        <v>3836.27</v>
+        <v>3623.6</v>
       </c>
       <c r="L21" t="n">
-        <v>3605.38</v>
+        <v>3604.85</v>
       </c>
       <c r="M21" t="n">
-        <v>3602.48</v>
+        <v>3614.2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3592.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3597.93</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3586.56</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3614.31</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3619.29</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3590.62</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3600.94</v>
+      </c>
+      <c r="U21" t="n">
+        <v>3615.93</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3636.32</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3637.69</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3638.21</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>3292.63</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>3336.22</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3297.3</v>
       </c>
     </row>
     <row r="22">
@@ -1354,40 +2186,82 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1315.87</v>
+        <v>1906.45</v>
       </c>
       <c r="C22" t="n">
-        <v>1385.43</v>
+        <v>1918.86</v>
       </c>
       <c r="D22" t="n">
-        <v>1772.6</v>
+        <v>1855.95</v>
       </c>
       <c r="E22" t="n">
-        <v>1863.37</v>
+        <v>1847.32</v>
       </c>
       <c r="F22" t="n">
-        <v>1836.98</v>
+        <v>1877.42</v>
       </c>
       <c r="G22" t="n">
-        <v>1833.68</v>
+        <v>1985.76</v>
       </c>
       <c r="H22" t="n">
-        <v>2193.13</v>
+        <v>2036.68</v>
       </c>
       <c r="I22" t="n">
-        <v>2182.67</v>
+        <v>2109.32</v>
       </c>
       <c r="J22" t="n">
-        <v>2176.2</v>
+        <v>2152.3</v>
       </c>
       <c r="K22" t="n">
-        <v>2183.08</v>
+        <v>2266.32</v>
       </c>
       <c r="L22" t="n">
-        <v>2165.1</v>
+        <v>2252.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1906.45</v>
+        <v>2636.22</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2638.46</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2698.99</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2759.42</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2765.73</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2757.77</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2756.67</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2397.63</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2095.08</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2062.06</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2000.82</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2073.28</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1719.72</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1871.54</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1879.54</v>
       </c>
     </row>
     <row r="23">
@@ -1397,40 +2271,82 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.56</v>
+        <v>437.4</v>
       </c>
       <c r="C23" t="n">
-        <v>374.78</v>
+        <v>172.96</v>
       </c>
       <c r="D23" t="n">
-        <v>437.76</v>
+        <v>173.24</v>
       </c>
       <c r="E23" t="n">
-        <v>438.77</v>
+        <v>172.41</v>
       </c>
       <c r="F23" t="n">
-        <v>437.86</v>
+        <v>172.27</v>
       </c>
       <c r="G23" t="n">
-        <v>438.43</v>
+        <v>172.16</v>
       </c>
       <c r="H23" t="n">
-        <v>438.54</v>
+        <v>173.58</v>
       </c>
       <c r="I23" t="n">
-        <v>438.53</v>
+        <v>171.85</v>
       </c>
       <c r="J23" t="n">
-        <v>437.94</v>
+        <v>173.33</v>
       </c>
       <c r="K23" t="n">
-        <v>437.36</v>
+        <v>172.5</v>
       </c>
       <c r="L23" t="n">
-        <v>437.32</v>
+        <v>173.12</v>
       </c>
       <c r="M23" t="n">
-        <v>437.4</v>
+        <v>173.73</v>
+      </c>
+      <c r="N23" t="n">
+        <v>172.67</v>
+      </c>
+      <c r="O23" t="n">
+        <v>173.4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>173.43</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>172.99</v>
+      </c>
+      <c r="R23" t="n">
+        <v>172.33</v>
+      </c>
+      <c r="S23" t="n">
+        <v>172.63</v>
+      </c>
+      <c r="T23" t="n">
+        <v>172.17</v>
+      </c>
+      <c r="U23" t="n">
+        <v>172.24</v>
+      </c>
+      <c r="V23" t="n">
+        <v>173.66</v>
+      </c>
+      <c r="W23" t="n">
+        <v>172.51</v>
+      </c>
+      <c r="X23" t="n">
+        <v>162.46</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>163.68</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>162.29</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>162.96</v>
       </c>
     </row>
     <row r="24">
@@ -1440,40 +2356,82 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>545.15</v>
+        <v>555.28</v>
       </c>
       <c r="C24" t="n">
-        <v>544.42</v>
+        <v>556.14</v>
       </c>
       <c r="D24" t="n">
-        <v>547.5</v>
+        <v>547.47</v>
       </c>
       <c r="E24" t="n">
-        <v>542.5</v>
+        <v>554.09</v>
       </c>
       <c r="F24" t="n">
-        <v>552.77</v>
+        <v>544.99</v>
       </c>
       <c r="G24" t="n">
-        <v>543.98</v>
+        <v>553.88</v>
       </c>
       <c r="H24" t="n">
-        <v>556.91</v>
+        <v>550.4</v>
       </c>
       <c r="I24" t="n">
-        <v>546.01</v>
+        <v>555.5700000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>557.08</v>
+        <v>551.77</v>
       </c>
       <c r="K24" t="n">
-        <v>549.91</v>
+        <v>550.96</v>
       </c>
       <c r="L24" t="n">
-        <v>546.35</v>
+        <v>1196.57</v>
       </c>
       <c r="M24" t="n">
-        <v>555.28</v>
+        <v>2708.82</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2394.37</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2407.12</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2393.49</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2404.56</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2406.18</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2600.28</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2299.75</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2303.78</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2512.78</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2501.73</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2511.43</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2504.6</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2498.27</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2515.04</v>
       </c>
     </row>
     <row r="25">
@@ -1483,40 +2441,82 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1078.23</v>
+        <v>788.34</v>
       </c>
       <c r="C25" t="n">
-        <v>1077.63</v>
+        <v>790.16</v>
       </c>
       <c r="D25" t="n">
-        <v>793.96</v>
+        <v>787.9400000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>794.75</v>
+        <v>795.29</v>
       </c>
       <c r="F25" t="n">
-        <v>794.0700000000001</v>
+        <v>795.17</v>
       </c>
       <c r="G25" t="n">
-        <v>792.98</v>
+        <v>792.76</v>
       </c>
       <c r="H25" t="n">
-        <v>796.26</v>
+        <v>794.9299999999999</v>
       </c>
       <c r="I25" t="n">
-        <v>795.5700000000001</v>
+        <v>792.72</v>
       </c>
       <c r="J25" t="n">
-        <v>788.8</v>
+        <v>791.22</v>
       </c>
       <c r="K25" t="n">
-        <v>794.16</v>
+        <v>790.22</v>
       </c>
       <c r="L25" t="n">
-        <v>794.0700000000001</v>
+        <v>791.36</v>
       </c>
       <c r="M25" t="n">
-        <v>788.34</v>
+        <v>792.8</v>
+      </c>
+      <c r="N25" t="n">
+        <v>791.92</v>
+      </c>
+      <c r="O25" t="n">
+        <v>789.03</v>
+      </c>
+      <c r="P25" t="n">
+        <v>788.01</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>789.01</v>
+      </c>
+      <c r="R25" t="n">
+        <v>788.62</v>
+      </c>
+      <c r="S25" t="n">
+        <v>795.53</v>
+      </c>
+      <c r="T25" t="n">
+        <v>794.22</v>
+      </c>
+      <c r="U25" t="n">
+        <v>791.12</v>
+      </c>
+      <c r="V25" t="n">
+        <v>793.28</v>
+      </c>
+      <c r="W25" t="n">
+        <v>929.6</v>
+      </c>
+      <c r="X25" t="n">
+        <v>930.6799999999999</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>921.4400000000001</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>927.05</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>934</v>
       </c>
     </row>
     <row r="26">
@@ -1526,38 +2526,82 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3267.45</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>3276.4</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3282.45</v>
+      </c>
       <c r="D26" t="n">
-        <v>3285.8</v>
+        <v>3286.44</v>
       </c>
       <c r="E26" t="n">
-        <v>3262.04</v>
+        <v>3286.32</v>
       </c>
       <c r="F26" t="n">
-        <v>3286.89</v>
+        <v>3287.63</v>
       </c>
       <c r="G26" t="n">
-        <v>3276.38</v>
+        <v>3284.61</v>
       </c>
       <c r="H26" t="n">
-        <v>3278.11</v>
+        <v>3275.62</v>
       </c>
       <c r="I26" t="n">
-        <v>3289.5</v>
+        <v>3282.74</v>
       </c>
       <c r="J26" t="n">
-        <v>3268.11</v>
+        <v>3278.42</v>
       </c>
       <c r="K26" t="n">
-        <v>3260.77</v>
+        <v>3261.66</v>
       </c>
       <c r="L26" t="n">
-        <v>3279.03</v>
+        <v>3276.99</v>
       </c>
       <c r="M26" t="n">
+        <v>3265.56</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3275.63</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3262.93</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3272.66</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3271.42</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3276.63</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3290.75</v>
+      </c>
+      <c r="T26" t="n">
         <v>3276.4</v>
+      </c>
+      <c r="U26" t="n">
+        <v>3255.75</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3266.35</v>
+      </c>
+      <c r="W26" t="n">
+        <v>3275.22</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3291.71</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2155.35</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>2163.52</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>2189.11</v>
       </c>
     </row>
     <row r="27">
@@ -1567,40 +2611,82 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2770.12</v>
+        <v>2766.32</v>
       </c>
       <c r="C27" t="n">
-        <v>2765.1</v>
+        <v>2796.19</v>
       </c>
       <c r="D27" t="n">
-        <v>2788.78</v>
+        <v>2786.33</v>
       </c>
       <c r="E27" t="n">
-        <v>2763.29</v>
+        <v>2787.83</v>
       </c>
       <c r="F27" t="n">
-        <v>2806.09</v>
+        <v>2766.74</v>
       </c>
       <c r="G27" t="n">
-        <v>2770.27</v>
+        <v>2778.91</v>
       </c>
       <c r="H27" t="n">
-        <v>2774.69</v>
+        <v>2761.59</v>
       </c>
       <c r="I27" t="n">
-        <v>2802.06</v>
+        <v>2750.07</v>
       </c>
       <c r="J27" t="n">
-        <v>2769.66</v>
+        <v>2782.24</v>
       </c>
       <c r="K27" t="n">
-        <v>2784.74</v>
+        <v>2758.2</v>
       </c>
       <c r="L27" t="n">
-        <v>2778.9</v>
+        <v>2770.2</v>
       </c>
       <c r="M27" t="n">
-        <v>2766.32</v>
+        <v>2809.28</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2805.44</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2767.4</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2805.85</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2778.23</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2752.04</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2796.7</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2805.74</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2763.65</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2783.26</v>
+      </c>
+      <c r="W27" t="n">
+        <v>2744.75</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2785.27</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2773.59</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>2760.64</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>2801.8</v>
       </c>
     </row>
     <row r="28">
@@ -1610,40 +2696,82 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>516.4400000000001</v>
+        <v>523.29</v>
       </c>
       <c r="C28" t="n">
-        <v>518.48</v>
+        <v>527.78</v>
       </c>
       <c r="D28" t="n">
-        <v>522.2</v>
+        <v>515.65</v>
       </c>
       <c r="E28" t="n">
-        <v>521.95</v>
+        <v>517.63</v>
       </c>
       <c r="F28" t="n">
-        <v>523.1900000000001</v>
+        <v>520.46</v>
       </c>
       <c r="G28" t="n">
-        <v>521.14</v>
+        <v>513.14</v>
       </c>
       <c r="H28" t="n">
-        <v>516.28</v>
+        <v>518.24</v>
       </c>
       <c r="I28" t="n">
-        <v>521.2</v>
+        <v>515.36</v>
       </c>
       <c r="J28" t="n">
-        <v>516.02</v>
+        <v>510.18</v>
       </c>
       <c r="K28" t="n">
-        <v>518.13</v>
+        <v>523.77</v>
       </c>
       <c r="L28" t="n">
-        <v>521.22</v>
+        <v>525.96</v>
       </c>
       <c r="M28" t="n">
-        <v>523.29</v>
+        <v>531.49</v>
+      </c>
+      <c r="N28" t="n">
+        <v>517.22</v>
+      </c>
+      <c r="O28" t="n">
+        <v>527.25</v>
+      </c>
+      <c r="P28" t="n">
+        <v>516.72</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1112.32</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1129.15</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1115.83</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1105.06</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1134.44</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1111.37</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1129.86</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1108.97</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1130.75</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1114.47</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1132.68</v>
       </c>
     </row>
     <row r="29">
@@ -1653,40 +2781,82 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3492.43</v>
+        <v>3509.42</v>
       </c>
       <c r="C29" t="n">
-        <v>3514.85</v>
+        <v>3498.16</v>
       </c>
       <c r="D29" t="n">
-        <v>3502.69</v>
+        <v>3488.45</v>
       </c>
       <c r="E29" t="n">
-        <v>3515.49</v>
+        <v>3499.86</v>
       </c>
       <c r="F29" t="n">
-        <v>3518.34</v>
+        <v>3492.97</v>
       </c>
       <c r="G29" t="n">
-        <v>3504.58</v>
+        <v>3522.98</v>
       </c>
       <c r="H29" t="n">
-        <v>3499.31</v>
+        <v>3495.63</v>
       </c>
       <c r="I29" t="n">
-        <v>3499.22</v>
+        <v>3491.73</v>
       </c>
       <c r="J29" t="n">
-        <v>3491.79</v>
+        <v>3500.11</v>
       </c>
       <c r="K29" t="n">
-        <v>3504.51</v>
+        <v>3500.13</v>
       </c>
       <c r="L29" t="n">
-        <v>3509.3</v>
+        <v>3507.71</v>
       </c>
       <c r="M29" t="n">
-        <v>3509.42</v>
+        <v>3501.12</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3492.89</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3100.23</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2886.48</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2880.35</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2891.21</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2869.9</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2869.45</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2871.61</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2889.07</v>
+      </c>
+      <c r="W29" t="n">
+        <v>2889.34</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2868.71</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2870.33</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>3067.56</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>3054.01</v>
       </c>
     </row>
     <row r="30">
@@ -1696,40 +2866,82 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2590.2</v>
+        <v>2553.75</v>
       </c>
       <c r="C30" t="n">
-        <v>2596.22</v>
+        <v>2401.32</v>
       </c>
       <c r="D30" t="n">
-        <v>2445.25</v>
+        <v>2401.19</v>
       </c>
       <c r="E30" t="n">
-        <v>2396.61</v>
+        <v>2439.96</v>
       </c>
       <c r="F30" t="n">
-        <v>2580.7</v>
+        <v>2406.32</v>
       </c>
       <c r="G30" t="n">
-        <v>2608.8</v>
+        <v>2627.27</v>
       </c>
       <c r="H30" t="n">
-        <v>2630.9</v>
+        <v>2632.63</v>
       </c>
       <c r="I30" t="n">
-        <v>2619.22</v>
+        <v>2603.26</v>
       </c>
       <c r="J30" t="n">
-        <v>2622.63</v>
+        <v>2616.54</v>
       </c>
       <c r="K30" t="n">
-        <v>2628.43</v>
+        <v>2634.32</v>
       </c>
       <c r="L30" t="n">
-        <v>2624</v>
+        <v>2595.04</v>
       </c>
       <c r="M30" t="n">
-        <v>2553.75</v>
+        <v>2466.81</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2430.24</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2439.7</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2617.21</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2556.66</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2551.34</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2551.78</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2790.8</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2788.86</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2764.42</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2761.01</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3088.85</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>3102.14</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>3072.76</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>3086.29</v>
       </c>
     </row>
     <row r="31">
@@ -1739,41 +2951,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15003.99</v>
+        <v>14990.83</v>
       </c>
       <c r="C31" t="n">
-        <v>15015.07</v>
+        <v>14989.8</v>
       </c>
       <c r="D31" t="n">
-        <v>14987.47</v>
-      </c>
-      <c r="E31" t="n">
-        <v>14967.4</v>
-      </c>
-      <c r="F31" t="n">
-        <v>14964.31</v>
-      </c>
-      <c r="G31" t="n">
-        <v>14995.42</v>
-      </c>
-      <c r="H31" t="n">
-        <v>15019.44</v>
-      </c>
-      <c r="I31" t="n">
-        <v>15021.19</v>
-      </c>
-      <c r="J31" t="n">
-        <v>15012.35</v>
-      </c>
-      <c r="K31" t="n">
-        <v>15009.82</v>
-      </c>
-      <c r="L31" t="n">
-        <v>15022.93</v>
-      </c>
-      <c r="M31" t="n">
-        <v>14990.83</v>
-      </c>
+        <v>9762.4</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1782,40 +2990,82 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3422.86</v>
+        <v>2306.17</v>
       </c>
       <c r="C32" t="n">
-        <v>2302.79</v>
+        <v>2303.31</v>
       </c>
       <c r="D32" t="n">
-        <v>2302.96</v>
+        <v>2299.25</v>
       </c>
       <c r="E32" t="n">
-        <v>2307.89</v>
+        <v>2304.39</v>
       </c>
       <c r="F32" t="n">
-        <v>2306.37</v>
+        <v>2307.38</v>
       </c>
       <c r="G32" t="n">
-        <v>2303.38</v>
+        <v>2299.71</v>
       </c>
       <c r="H32" t="n">
-        <v>2300.74</v>
+        <v>2300.04</v>
       </c>
       <c r="I32" t="n">
-        <v>2304.86</v>
+        <v>2293.79</v>
       </c>
       <c r="J32" t="n">
-        <v>2302.41</v>
+        <v>2303.29</v>
       </c>
       <c r="K32" t="n">
-        <v>2307.92</v>
+        <v>2301.71</v>
       </c>
       <c r="L32" t="n">
-        <v>2300.31</v>
+        <v>2308.91</v>
       </c>
       <c r="M32" t="n">
-        <v>2306.17</v>
+        <v>2308.07</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2305.97</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3055.1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3055.76</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3610.45</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3609.95</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3600.19</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3599.86</v>
+      </c>
+      <c r="U32" t="n">
+        <v>3608.06</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3600.61</v>
+      </c>
+      <c r="W32" t="n">
+        <v>3606.98</v>
+      </c>
+      <c r="X32" t="n">
+        <v>3603.56</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>3603.86</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>3614.22</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>3610.53</v>
       </c>
     </row>
     <row r="33">
@@ -1825,40 +3075,82 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6435.31</v>
+        <v>5152.16</v>
       </c>
       <c r="C33" t="n">
-        <v>4228.75</v>
+        <v>5142.32</v>
       </c>
       <c r="D33" t="n">
-        <v>5921.86</v>
+        <v>5029.13</v>
       </c>
       <c r="E33" t="n">
-        <v>5873.48</v>
+        <v>4668.97</v>
       </c>
       <c r="F33" t="n">
-        <v>5876.35</v>
+        <v>4672.87</v>
       </c>
       <c r="G33" t="n">
-        <v>5691.69</v>
+        <v>4757.99</v>
       </c>
       <c r="H33" t="n">
-        <v>5637.77</v>
+        <v>4710.19</v>
       </c>
       <c r="I33" t="n">
-        <v>5629.76</v>
+        <v>4735.37</v>
       </c>
       <c r="J33" t="n">
-        <v>5564.2</v>
+        <v>4722.97</v>
       </c>
       <c r="K33" t="n">
-        <v>5466.5</v>
+        <v>4817.21</v>
       </c>
       <c r="L33" t="n">
-        <v>5235.91</v>
+        <v>4847.26</v>
       </c>
       <c r="M33" t="n">
-        <v>5152.16</v>
+        <v>4833.89</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4792.24</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4803.86</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4829.64</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4918.07</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5121.32</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5341.4</v>
+      </c>
+      <c r="T33" t="n">
+        <v>5325.74</v>
+      </c>
+      <c r="U33" t="n">
+        <v>5201.44</v>
+      </c>
+      <c r="V33" t="n">
+        <v>5203.71</v>
+      </c>
+      <c r="W33" t="n">
+        <v>5219.95</v>
+      </c>
+      <c r="X33" t="n">
+        <v>5377.38</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>5269.39</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>5222.95</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>5228.04</v>
       </c>
     </row>
     <row r="34">
@@ -1868,40 +3160,82 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>199494.62</v>
+        <v>159717.02</v>
       </c>
       <c r="C34" t="n">
-        <v>109947.45</v>
+        <v>159412.03</v>
       </c>
       <c r="D34" t="n">
-        <v>183577.56</v>
+        <v>150874.01</v>
       </c>
       <c r="E34" t="n">
-        <v>182077.97</v>
+        <v>135400.25</v>
       </c>
       <c r="F34" t="n">
-        <v>182166.8</v>
+        <v>135513.11</v>
       </c>
       <c r="G34" t="n">
-        <v>176442.47</v>
+        <v>137981.62</v>
       </c>
       <c r="H34" t="n">
-        <v>174770.82</v>
+        <v>136595.52</v>
       </c>
       <c r="I34" t="n">
-        <v>174522.59</v>
+        <v>137325.75</v>
       </c>
       <c r="J34" t="n">
-        <v>172490.15</v>
+        <v>136966.08</v>
       </c>
       <c r="K34" t="n">
-        <v>169461.43</v>
+        <v>139699.19</v>
       </c>
       <c r="L34" t="n">
-        <v>162313.2</v>
+        <v>140570.53</v>
       </c>
       <c r="M34" t="n">
-        <v>159717.02</v>
+        <v>140182.68</v>
+      </c>
+      <c r="N34" t="n">
+        <v>138974.86</v>
+      </c>
+      <c r="O34" t="n">
+        <v>139311.89</v>
+      </c>
+      <c r="P34" t="n">
+        <v>140059.55</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>142623.97</v>
+      </c>
+      <c r="R34" t="n">
+        <v>143397.07</v>
+      </c>
+      <c r="S34" t="n">
+        <v>144217.74</v>
+      </c>
+      <c r="T34" t="n">
+        <v>143794.9</v>
+      </c>
+      <c r="U34" t="n">
+        <v>140438.95</v>
+      </c>
+      <c r="V34" t="n">
+        <v>140500.26</v>
+      </c>
+      <c r="W34" t="n">
+        <v>140938.74</v>
+      </c>
+      <c r="X34" t="n">
+        <v>145189.38</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>142273.47</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>141019.6</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>141157.12</v>
       </c>
     </row>
   </sheetData>
